--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.14</v>
@@ -662,16 +662,16 @@
         <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.67</v>
@@ -713,7 +713,7 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -767,25 +767,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
@@ -890,46 +890,46 @@
         <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -941,34 +941,34 @@
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD4" t="n">
         <v>7.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
         <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>51</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>67</v>
@@ -1007,49 +1007,49 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
         <v>11</v>
@@ -1064,16 +1064,16 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="n">
         <v>67</v>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.11</v>
@@ -1142,13 +1142,13 @@
         <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1193,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD6" t="n">
         <v>9.5</v>
@@ -1208,10 +1208,10 @@
         <v>81</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
@@ -1247,46 +1247,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U7" t="n">
         <v>8.5</v>
@@ -1298,22 +1298,22 @@
         <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
         <v>41</v>
@@ -1331,7 +1331,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.67</v>
@@ -1400,16 +1400,16 @@
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="n">
         <v>5.5</v>
@@ -1430,7 +1430,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>101</v>
@@ -1704,7 +1704,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Awdue8Yh</t>
+          <t>GGz6t9Ja</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ML Vitebsk</t>
+          <t>Din. Minsk</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitebsk</t>
+          <t>Naftan</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GGz6t9Ja</t>
+          <t>Awdue8Yh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Din. Minsk</t>
+          <t>ML Vitebsk</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Naftan</t>
+          <t>Vitebsk</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2049,7 +2049,7 @@
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>1.1</v>
@@ -2165,13 +2165,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2207,13 +2207,13 @@
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>10</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
@@ -2234,19 +2234,19 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2287,94 +2287,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K19" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="N19" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="U19" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="V19" t="n">
         <v>8.75</v>
       </c>
       <c r="W19" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="n">
         <v>45</v>
       </c>
-      <c r="AH19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20">
@@ -2409,91 +2409,91 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="U20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W20" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>800</v>
@@ -2651,94 +2651,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N22" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="V22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23">
@@ -2773,93 +2773,95 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U23" t="n">
+        <v>23</v>
+      </c>
+      <c r="V23" t="n">
         <v>17</v>
       </c>
-      <c r="V23" t="n">
-        <v>13</v>
-      </c>
       <c r="W23" t="n">
+        <v>51</v>
+      </c>
+      <c r="X23" t="n">
         <v>41</v>
       </c>
-      <c r="X23" t="n">
-        <v>34</v>
-      </c>
       <c r="Y23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>9.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ23" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2893,19 +2895,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -2914,10 +2916,10 @@
         <v>3.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.47</v>
@@ -2926,61 +2928,61 @@
         <v>2.57</v>
       </c>
       <c r="R24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>7.7</v>
+        <v>8.75</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="V24" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
         <v>35</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>75</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>35</v>
       </c>
       <c r="AJ24" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3015,13 +3017,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3054,22 +3056,22 @@
         <v>1.95</v>
       </c>
       <c r="T25" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="U25" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z25" t="n">
         <v>7.5</v>
@@ -3084,22 +3086,22 @@
         <v>75</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AG25" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
         <v>600</v>
@@ -3259,46 +3261,46 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I27" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="R27" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U27" t="n">
         <v>15</v>
@@ -3316,13 +3318,13 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="n">
         <v>67</v>
@@ -3343,7 +3345,7 @@
         <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
         <v>1250</v>
@@ -3381,7 +3383,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H28" t="n">
         <v>4.1</v>
@@ -3402,10 +3404,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3450,16 +3452,16 @@
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="n">
         <v>41</v>
@@ -3503,13 +3505,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3542,19 +3544,19 @@
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
         <v>12</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
         <v>23</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
         <v>29</v>
@@ -3572,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="AD29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -3625,25 +3627,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>4.65</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N30" t="n">
         <v>2.15</v>
@@ -3652,67 +3654,67 @@
         <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="U30" t="n">
-        <v>9.75</v>
+        <v>7.8</v>
       </c>
       <c r="V30" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
         <v>37</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD30" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31">
@@ -3747,94 +3749,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N31" t="n">
         <v>2.2</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.98</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="P31" t="n">
         <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S31" t="n">
         <v>1.78</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.93</v>
-      </c>
       <c r="T31" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="V31" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W31" t="n">
+        <v>32</v>
+      </c>
+      <c r="X31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y31" t="n">
         <v>45</v>
       </c>
-      <c r="X31" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
         <v>40</v>
       </c>
-      <c r="Z31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -3868,36 +3870,88 @@
           <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.88</v>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3930,35 +3984,85 @@
           <t>Chongqing Tonglianglong</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.33</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T33" t="n">
+        <v>21</v>
+      </c>
+      <c r="U33" t="n">
+        <v>65</v>
+      </c>
+      <c r="V33" t="n">
+        <v>28</v>
+      </c>
+      <c r="W33" t="n">
+        <v>300</v>
+      </c>
+      <c r="X33" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>32</v>
+      </c>
       <c r="AJ33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -3992,36 +4096,92 @@
           <t>Qingdao Red Lions</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7</v>
+      </c>
+      <c r="U34" t="n">
+        <v>11</v>
+      </c>
+      <c r="V34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4054,36 +4214,92 @@
           <t>Guangdong GZ-Power</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>11</v>
+      </c>
+      <c r="W35" t="n">
+        <v>35</v>
+      </c>
+      <c r="X35" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4177,7 +4393,7 @@
         <v>7</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
         <v>19</v>
@@ -4239,19 +4455,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>1.08</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -4266,28 +4482,28 @@
         <v>1.62</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X37" t="n">
         <v>21</v>
@@ -4296,13 +4512,13 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>51</v>
@@ -4314,13 +4530,13 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>34</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
         <v>41</v>
@@ -4663,64 +4879,64 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R41" t="n">
         <v>2.1</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
         <v>6.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
         <v>10</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
         <v>34</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
         <v>7.5</v>
@@ -4729,13 +4945,13 @@
         <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
         <v>13</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
         <v>21</v>
@@ -4804,10 +5020,10 @@
         <v>3.25</v>
       </c>
       <c r="N42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -4831,7 +5047,7 @@
         <v>13</v>
       </c>
       <c r="W42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X42" t="n">
         <v>29</v>
@@ -5024,36 +5240,96 @@
           <t>Pharco</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X44" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5087,13 +5363,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H45" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="I45" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5109,52 +5385,52 @@
         <v>30</v>
       </c>
       <c r="U45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="V45" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W45" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="X45" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y45" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z45" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AE45" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG45" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AH45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
@@ -5189,75 +5465,75 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O46" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="U46" t="n">
         <v>7.6</v>
       </c>
       <c r="V46" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W46" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X46" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z46" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC46" t="n">
         <v>40</v>
       </c>
       <c r="AD46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG46" t="n">
         <v>50</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ46" t="n">
         <v>200</v>
@@ -5459,7 +5735,7 @@
         <v>11</v>
       </c>
       <c r="U48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V48" t="n">
         <v>11</v>
@@ -5486,10 +5762,10 @@
         <v>41</v>
       </c>
       <c r="AD48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF48" t="n">
         <v>9.5</v>
@@ -5587,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="W49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X49" t="n">
         <v>21</v>
@@ -5614,7 +5890,7 @@
         <v>13</v>
       </c>
       <c r="AF49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
         <v>23</v>
@@ -5676,16 +5952,16 @@
         <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -5694,16 +5970,16 @@
         <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S50" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V50" t="n">
         <v>8.5</v>
@@ -5715,7 +5991,7 @@
         <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z50" t="n">
         <v>11</v>
@@ -5724,10 +6000,10 @@
         <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD50" t="n">
         <v>12</v>
@@ -5786,16 +6062,16 @@
         <v>2.7</v>
       </c>
       <c r="H51" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I51" t="n">
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>1.67</v>
@@ -5915,7 +6191,7 @@
         <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="n">
         <v>1.25</v>
@@ -6025,13 +6301,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J53" t="n">
         <v>1.1</v>
@@ -6085,13 +6361,13 @@
         <v>7</v>
       </c>
       <c r="AA53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB53" t="n">
         <v>19</v>
       </c>
       <c r="AC53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="n">
         <v>9</v>
@@ -6145,13 +6421,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J54" t="n">
         <v>1.08</v>
@@ -6160,10 +6436,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N54" t="n">
         <v>2.35</v>
@@ -6187,7 +6463,7 @@
         <v>8</v>
       </c>
       <c r="U54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V54" t="n">
         <v>12</v>
@@ -6211,13 +6487,13 @@
         <v>17</v>
       </c>
       <c r="AC54" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF54" t="n">
         <v>10</v>
@@ -6226,7 +6502,7 @@
         <v>23</v>
       </c>
       <c r="AH54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI54" t="n">
         <v>34</v>
@@ -6276,10 +6552,10 @@
         <v>3.6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
         <v>1.29</v>
@@ -6395,13 +6671,13 @@
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K56" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L56" t="n">
         <v>1.3</v>
@@ -6410,10 +6686,10 @@
         <v>3.4</v>
       </c>
       <c r="N56" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -6428,7 +6704,7 @@
         <v>1.95</v>
       </c>
       <c r="T56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U56" t="n">
         <v>11</v>
@@ -6446,7 +6722,7 @@
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
@@ -6458,7 +6734,7 @@
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -6467,10 +6743,10 @@
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
         <v>34</v>
@@ -6523,7 +6799,7 @@
         <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -6636,7 +6912,7 @@
         <v>2.25</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
         <v>3.2</v>
@@ -6693,10 +6969,10 @@
         <v>7.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="n">
         <v>67</v>
@@ -6764,10 +7040,10 @@
         <v>4.1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -6892,16 +7168,16 @@
         <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M60" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P60" t="n">
         <v>1.36</v>
@@ -6946,7 +7222,7 @@
         <v>41</v>
       </c>
       <c r="AD60" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
@@ -6955,10 +7231,10 @@
         <v>10</v>
       </c>
       <c r="AG60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI60" t="n">
         <v>26</v>
@@ -7008,10 +7284,10 @@
         <v>2.45</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" t="n">
         <v>1.29</v>
@@ -7127,7 +7403,7 @@
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J62" t="n">
         <v>1.05</v>
@@ -7163,7 +7439,7 @@
         <v>8</v>
       </c>
       <c r="U62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V62" t="n">
         <v>9</v>
@@ -7190,7 +7466,7 @@
         <v>41</v>
       </c>
       <c r="AD62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -7255,7 +7531,7 @@
         <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.3</v>
@@ -7374,10 +7650,10 @@
         <v>3.2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
         <v>1.33</v>
@@ -7496,10 +7772,10 @@
         <v>2.8</v>
       </c>
       <c r="J65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K65" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L65" t="n">
         <v>1.53</v>
@@ -7624,10 +7900,10 @@
         <v>6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N66" t="n">
         <v>2.88</v>
@@ -7735,7 +8011,7 @@
         <v>8.75</v>
       </c>
       <c r="I67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -7748,28 +8024,28 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="U67" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="V67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W67" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="X67" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z67" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB67" t="n">
         <v>37</v>
@@ -7778,17 +8054,17 @@
         <v>120</v>
       </c>
       <c r="AD67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AF67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AI67" t="n">
         <v>150</v>
@@ -7832,10 +8108,10 @@
         <v>1.08</v>
       </c>
       <c r="H68" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="I68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -7848,7 +8124,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U68" t="n">
         <v>6.1</v>
@@ -7927,82 +8203,82 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="O69" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P69" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U69" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X69" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y69" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA69" t="n">
         <v>5.9</v>
       </c>
       <c r="AB69" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AF69" t="n">
         <v>7.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ69" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70">
@@ -8037,30 +8313,34 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H70" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="U70" t="n">
         <v>6.4</v>
@@ -8069,46 +8349,46 @@
         <v>6.9</v>
       </c>
       <c r="W70" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X70" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y70" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z70" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB70" t="n">
         <v>13.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD70" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH70" t="n">
         <v>37</v>
       </c>
       <c r="AI70" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ70" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71">
@@ -8142,36 +8422,88 @@
           <t>Leones Negros</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.62</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.93</v>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T71" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U71" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>32</v>
+      </c>
+      <c r="X71" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8631,13 +8963,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
@@ -8646,40 +8978,40 @@
         <v>15</v>
       </c>
       <c r="L78" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O78" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S78" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T78" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V78" t="n">
         <v>8.5</v>
       </c>
       <c r="W78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X78" t="n">
         <v>13</v>
@@ -8688,13 +9020,13 @@
         <v>21</v>
       </c>
       <c r="Z78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB78" t="n">
         <v>13</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>15</v>
       </c>
       <c r="AC78" t="n">
         <v>41</v>
@@ -8709,10 +9041,10 @@
         <v>15</v>
       </c>
       <c r="AG78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
         <v>34</v>
@@ -8753,13 +9085,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J79" t="n">
         <v>1.04</v>
@@ -8795,10 +9127,10 @@
         <v>8.5</v>
       </c>
       <c r="U79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W79" t="n">
         <v>19</v>
@@ -8825,16 +9157,16 @@
         <v>11</v>
       </c>
       <c r="AE79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI79" t="n">
         <v>29</v>
@@ -9006,10 +9338,10 @@
         <v>2.75</v>
       </c>
       <c r="J81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
         <v>1.2</v>
@@ -9018,10 +9350,10 @@
         <v>4.33</v>
       </c>
       <c r="N81" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O81" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P81" t="n">
         <v>1.3</v>
@@ -9253,7 +9585,7 @@
         <v>1.04</v>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L83" t="n">
         <v>1.22</v>
@@ -9262,10 +9594,10 @@
         <v>4</v>
       </c>
       <c r="N83" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O83" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P83" t="n">
         <v>1.33</v>
@@ -9369,7 +9701,7 @@
         <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J84" t="n">
         <v>1.04</v>
@@ -9378,28 +9710,28 @@
         <v>12</v>
       </c>
       <c r="L84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O84" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R84" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T84" t="n">
         <v>8</v>
@@ -9488,7 +9820,7 @@
         <v>2.45</v>
       </c>
       <c r="H85" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I85" t="n">
         <v>2.5</v>
@@ -9524,7 +9856,7 @@
         <v>2.38</v>
       </c>
       <c r="T85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U85" t="n">
         <v>15</v>
@@ -9743,25 +10075,25 @@
         <v>1.4</v>
       </c>
       <c r="M87" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N87" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O87" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R87" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S87" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T87" t="n">
         <v>6.2</v>
@@ -9773,7 +10105,7 @@
         <v>9.25</v>
       </c>
       <c r="W87" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X87" t="n">
         <v>19.5</v>
@@ -9782,16 +10114,16 @@
         <v>37</v>
       </c>
       <c r="Z87" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA87" t="n">
         <v>6.3</v>
       </c>
       <c r="AB87" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD87" t="n">
         <v>8</v>
@@ -9803,7 +10135,7 @@
         <v>12</v>
       </c>
       <c r="AG87" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH87" t="n">
         <v>32</v>
@@ -9856,76 +10188,76 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M88" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="N88" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="O88" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P88" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R88" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T88" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U88" t="n">
+        <v>10</v>
+      </c>
+      <c r="V88" t="n">
         <v>9.75</v>
-      </c>
-      <c r="V88" t="n">
-        <v>10</v>
       </c>
       <c r="W88" t="n">
         <v>23</v>
       </c>
       <c r="X88" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y88" t="n">
         <v>45</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB88" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC88" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD88" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE88" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF88" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI88" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ88" t="inlineStr"/>
     </row>
@@ -10085,13 +10417,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
@@ -10127,7 +10459,7 @@
         <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V91" t="n">
         <v>10</v>
@@ -10136,13 +10468,13 @@
         <v>26</v>
       </c>
       <c r="X91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y91" t="n">
         <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
@@ -10154,7 +10486,7 @@
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE91" t="n">
         <v>13</v>
@@ -10207,19 +10539,19 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H92" t="n">
         <v>3.1</v>
       </c>
       <c r="I92" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J92" t="n">
         <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L92" t="n">
         <v>1.33</v>
@@ -10228,16 +10560,16 @@
         <v>3.25</v>
       </c>
       <c r="N92" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O92" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R92" t="n">
         <v>1.8</v>
@@ -10255,16 +10587,16 @@
         <v>10</v>
       </c>
       <c r="W92" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X92" t="n">
         <v>21</v>
       </c>
       <c r="Y92" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA92" t="n">
         <v>6</v>
@@ -10276,7 +10608,7 @@
         <v>51</v>
       </c>
       <c r="AD92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE92" t="n">
         <v>13</v>
@@ -10329,13 +10661,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
@@ -10362,16 +10694,16 @@
         <v>2.63</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T93" t="n">
         <v>6</v>
       </c>
       <c r="U93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
@@ -10389,7 +10721,7 @@
         <v>8.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="n">
         <v>19</v>
@@ -10401,7 +10733,7 @@
         <v>12</v>
       </c>
       <c r="AE93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF93" t="n">
         <v>17</v>
@@ -10707,19 +11039,19 @@
         <v>1.07</v>
       </c>
       <c r="K96" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L96" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M96" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N96" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P96" t="n">
         <v>1.44</v>
@@ -10939,13 +11271,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="J98" t="n">
         <v>1.08</v>
@@ -10960,10 +11292,10 @@
         <v>3</v>
       </c>
       <c r="N98" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O98" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P98" t="n">
         <v>1.44</v>
@@ -10978,22 +11310,22 @@
         <v>1.83</v>
       </c>
       <c r="T98" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="U98" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V98" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W98" t="n">
+        <v>26</v>
+      </c>
+      <c r="X98" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y98" t="n">
         <v>34</v>
-      </c>
-      <c r="X98" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>41</v>
       </c>
       <c r="Z98" t="n">
         <v>8</v>
@@ -11008,19 +11340,19 @@
         <v>51</v>
       </c>
       <c r="AD98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE98" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG98" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH98" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI98" t="n">
         <v>34</v>
@@ -11064,10 +11396,10 @@
         <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J99" t="n">
         <v>1.08</v>
@@ -11130,10 +11462,10 @@
         <v>67</v>
       </c>
       <c r="AD99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF99" t="n">
         <v>13</v>
@@ -11367,13 +11699,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I103" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.4</v>
       </c>
       <c r="J103" t="n">
         <v>1.06</v>
@@ -11498,16 +11830,16 @@
         <v>2.63</v>
       </c>
       <c r="J104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N104" t="n">
         <v>1.7</v>
@@ -11614,10 +11946,10 @@
         <v>2.88</v>
       </c>
       <c r="H105" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I105" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
@@ -11626,10 +11958,10 @@
         <v>12</v>
       </c>
       <c r="L105" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M105" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N105" t="n">
         <v>1.8</v>
@@ -11650,7 +11982,7 @@
         <v>2.1</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U105" t="n">
         <v>15</v>
@@ -11671,7 +12003,7 @@
         <v>12</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB105" t="n">
         <v>13</v>
@@ -11689,13 +12021,13 @@
         <v>9.5</v>
       </c>
       <c r="AG105" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI105" t="n">
         <v>23</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>26</v>
       </c>
       <c r="AJ105" t="n">
         <v>151</v>
@@ -11733,25 +12065,25 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
         <v>3.7</v>
       </c>
       <c r="I106" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J106" t="n">
         <v>1.04</v>
       </c>
       <c r="K106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L106" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M106" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N106" t="n">
         <v>1.8</v>
@@ -11766,10 +12098,10 @@
         <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T106" t="n">
         <v>13</v>
@@ -11784,7 +12116,7 @@
         <v>41</v>
       </c>
       <c r="X106" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y106" t="n">
         <v>34</v>
@@ -11805,7 +12137,7 @@
         <v>8</v>
       </c>
       <c r="AE106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF106" t="n">
         <v>8.5</v>
@@ -11867,7 +12199,7 @@
         <v>1.03</v>
       </c>
       <c r="K107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L107" t="n">
         <v>1.14</v>
@@ -11909,7 +12241,7 @@
         <v>11</v>
       </c>
       <c r="Y107" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z107" t="n">
         <v>15</v>
@@ -12049,7 +12381,7 @@
         <v>15</v>
       </c>
       <c r="AE108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF108" t="n">
         <v>13</v>
@@ -12099,13 +12431,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>3.7</v>
       </c>
       <c r="I109" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.04</v>
@@ -12120,10 +12452,10 @@
         <v>4</v>
       </c>
       <c r="N109" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O109" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P109" t="n">
         <v>1.33</v>
@@ -12144,7 +12476,7 @@
         <v>13</v>
       </c>
       <c r="V109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W109" t="n">
         <v>26</v>
@@ -12224,28 +12556,28 @@
         <v>1.48</v>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I110" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L110" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M110" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O110" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P110" t="n">
         <v>1.22</v>
@@ -12278,10 +12610,10 @@
         <v>19</v>
       </c>
       <c r="Z110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB110" t="n">
         <v>15</v>
@@ -12302,7 +12634,7 @@
         <v>51</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
         <v>34</v>
@@ -12343,13 +12675,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H111" t="n">
         <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J111" t="n">
         <v>1.01</v>
@@ -12358,16 +12690,16 @@
         <v>26</v>
       </c>
       <c r="L111" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N111" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O111" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P111" t="n">
         <v>1.17</v>
@@ -12376,22 +12708,22 @@
         <v>5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S111" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
       </c>
       <c r="U111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V111" t="n">
         <v>9</v>
       </c>
       <c r="W111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X111" t="n">
         <v>11</v>
@@ -12406,7 +12738,7 @@
         <v>11</v>
       </c>
       <c r="AB111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC111" t="n">
         <v>34</v>
@@ -12421,13 +12753,13 @@
         <v>19</v>
       </c>
       <c r="AG111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH111" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ111" t="n">
         <v>81</v>
@@ -12465,13 +12797,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I112" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J112" t="n">
         <v>1.01</v>
@@ -12486,10 +12818,10 @@
         <v>8</v>
       </c>
       <c r="N112" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P112" t="n">
         <v>1.18</v>
@@ -12498,31 +12830,31 @@
         <v>4.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S112" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T112" t="n">
         <v>26</v>
       </c>
       <c r="U112" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V112" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W112" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X112" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z112" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA112" t="n">
         <v>11</v>
@@ -12531,13 +12863,13 @@
         <v>13</v>
       </c>
       <c r="AC112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
         <v>9</v>
@@ -12608,10 +12940,10 @@
         <v>4.33</v>
       </c>
       <c r="N113" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O113" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P113" t="n">
         <v>1.3</v>
@@ -12638,7 +12970,7 @@
         <v>17</v>
       </c>
       <c r="X113" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y113" t="n">
         <v>21</v>
@@ -12668,7 +13000,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI113" t="n">
         <v>29</v>
@@ -12709,37 +13041,37 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H114" t="n">
         <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J114" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P114" t="n">
         <v>1.5</v>
       </c>
-      <c r="M114" t="n">
+      <c r="Q114" t="n">
         <v>2.5</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P114" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.38</v>
       </c>
       <c r="R114" t="n">
         <v>2.1</v>
@@ -12748,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="T114" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V114" t="n">
         <v>11</v>
@@ -12760,13 +13092,13 @@
         <v>29</v>
       </c>
       <c r="X114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y114" t="n">
         <v>41</v>
       </c>
       <c r="Z114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
@@ -12775,7 +13107,7 @@
         <v>19</v>
       </c>
       <c r="AC114" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD114" t="n">
         <v>6.5</v>
@@ -12784,18 +13116,20 @@
         <v>11</v>
       </c>
       <c r="AF114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI114" t="n">
         <v>41</v>
       </c>
-      <c r="AJ114" t="inlineStr"/>
+      <c r="AJ114" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12951,19 +13285,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L116" t="n">
         <v>1.5</v>
@@ -12984,55 +13318,55 @@
         <v>2.38</v>
       </c>
       <c r="R116" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S116" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V116" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W116" t="n">
+        <v>41</v>
+      </c>
+      <c r="X116" t="n">
         <v>34</v>
-      </c>
-      <c r="X116" t="n">
-        <v>29</v>
       </c>
       <c r="Y116" t="n">
         <v>41</v>
       </c>
       <c r="Z116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC116" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD116" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AF116" t="n">
         <v>10</v>
       </c>
       <c r="AG116" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH116" t="n">
         <v>21</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>23</v>
       </c>
       <c r="AI116" t="n">
         <v>41</v>
@@ -13070,35 +13404,89 @@
           <t>Rampla Juniors</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr"/>
-      <c r="AH117" t="inlineStr"/>
-      <c r="AI117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T117" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U117" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V117" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>23</v>
+      </c>
+      <c r="X117" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>60</v>
+      </c>
       <c r="AJ117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -13132,35 +13520,89 @@
           <t>Fenix</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr"/>
-      <c r="AH118" t="inlineStr"/>
-      <c r="AI118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T118" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U118" t="n">
+        <v>11</v>
+      </c>
+      <c r="V118" t="n">
+        <v>10</v>
+      </c>
+      <c r="W118" t="n">
+        <v>27</v>
+      </c>
+      <c r="X118" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>55</v>
+      </c>
       <c r="AJ118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -13194,35 +13636,89 @@
           <t>Rentistas</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
-      <c r="AF119" t="inlineStr"/>
-      <c r="AG119" t="inlineStr"/>
-      <c r="AH119" t="inlineStr"/>
-      <c r="AI119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T119" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U119" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>50</v>
+      </c>
+      <c r="X119" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>45</v>
+      </c>
       <c r="AJ119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -13256,35 +13752,89 @@
           <t>Central Esp.</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
-      <c r="AF120" t="inlineStr"/>
-      <c r="AG120" t="inlineStr"/>
-      <c r="AH120" t="inlineStr"/>
-      <c r="AI120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T120" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U120" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V120" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W120" t="n">
+        <v>21</v>
+      </c>
+      <c r="X120" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>55</v>
+      </c>
       <c r="AJ120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -13319,49 +13869,49 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H121" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I121" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J121" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
+        <v>17</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>12</v>
+      </c>
+      <c r="U121" t="n">
         <v>13</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M121" t="n">
-        <v>4</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P121" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T121" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U121" t="n">
-        <v>12</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
@@ -13370,31 +13920,31 @@
         <v>21</v>
       </c>
       <c r="X121" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z121" t="n">
         <v>17</v>
       </c>
-      <c r="Y121" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>13</v>
-      </c>
       <c r="AA121" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC121" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD121" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE121" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG121" t="n">
         <v>34</v>
@@ -13403,10 +13953,10 @@
         <v>23</v>
       </c>
       <c r="AI121" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ121" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122">
@@ -13441,19 +13991,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H122" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I122" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
       </c>
       <c r="K122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L122" t="n">
         <v>1.22</v>
@@ -13462,10 +14012,10 @@
         <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O122" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P122" t="n">
         <v>1.33</v>
@@ -13474,22 +14024,22 @@
         <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S122" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T122" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U122" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
       </c>
       <c r="W122" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X122" t="n">
         <v>15</v>
@@ -13498,7 +14048,7 @@
         <v>23</v>
       </c>
       <c r="Z122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA122" t="n">
         <v>7</v>
@@ -13510,25 +14060,25 @@
         <v>41</v>
       </c>
       <c r="AD122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE122" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG122" t="n">
         <v>41</v>
       </c>
       <c r="AH122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ122" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123">
@@ -13563,13 +14113,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I123" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J123" t="n">
         <v>1.04</v>
@@ -13578,16 +14128,16 @@
         <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M123" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N123" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O123" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P123" t="n">
         <v>1.33</v>
@@ -13602,22 +14152,22 @@
         <v>2.1</v>
       </c>
       <c r="T123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W123" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y123" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z123" t="n">
         <v>13</v>
@@ -13632,22 +14182,22 @@
         <v>41</v>
       </c>
       <c r="AD123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG123" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH123" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ123" t="n">
         <v>151</v>
@@ -13685,13 +14235,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H124" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J124" t="n">
         <v>1.03</v>
@@ -13700,16 +14250,16 @@
         <v>15</v>
       </c>
       <c r="L124" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O124" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P124" t="n">
         <v>1.29</v>
@@ -13727,13 +14277,13 @@
         <v>9</v>
       </c>
       <c r="U124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V124" t="n">
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X124" t="n">
         <v>12</v>
@@ -13745,7 +14295,7 @@
         <v>15</v>
       </c>
       <c r="AA124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB124" t="n">
         <v>13</v>
@@ -13754,16 +14304,16 @@
         <v>41</v>
       </c>
       <c r="AD124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF124" t="n">
         <v>19</v>
       </c>
-      <c r="AE124" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>17</v>
-      </c>
       <c r="AG124" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH124" t="n">
         <v>41</v>
@@ -13807,82 +14357,82 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H125" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J125" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K125" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L125" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="M125" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N125" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="O125" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P125" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Q125" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R125" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="S125" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U125" t="n">
         <v>13</v>
       </c>
       <c r="V125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W125" t="n">
         <v>21</v>
       </c>
       <c r="X125" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD125" t="n">
         <v>17</v>
       </c>
-      <c r="Y125" t="n">
+      <c r="AE125" t="n">
         <v>21</v>
       </c>
-      <c r="Z125" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>17</v>
-      </c>
       <c r="AF125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG125" t="n">
         <v>34</v>
@@ -13891,10 +14441,10 @@
         <v>21</v>
       </c>
       <c r="AI125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ125" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126">
@@ -13929,31 +14479,31 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H126" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I126" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J126" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L126" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M126" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N126" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O126" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P126" t="n">
         <v>1.3</v>
@@ -13962,22 +14512,22 @@
         <v>3.4</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T126" t="n">
+        <v>9</v>
+      </c>
+      <c r="U126" t="n">
         <v>10</v>
       </c>
-      <c r="U126" t="n">
-        <v>12</v>
-      </c>
       <c r="V126" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X126" t="n">
         <v>15</v>
@@ -13986,13 +14536,13 @@
         <v>21</v>
       </c>
       <c r="Z126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA126" t="n">
         <v>7</v>
       </c>
       <c r="AB126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC126" t="n">
         <v>41</v>
@@ -14001,22 +14551,22 @@
         <v>13</v>
       </c>
       <c r="AE126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH126" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI126" t="n">
         <v>29</v>
       </c>
       <c r="AJ126" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
@@ -14051,13 +14601,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H127" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I127" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J127" t="n">
         <v>1.03</v>
@@ -14066,16 +14616,16 @@
         <v>15</v>
       </c>
       <c r="L127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M127" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N127" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O127" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P127" t="n">
         <v>1.29</v>
@@ -14084,16 +14634,16 @@
         <v>3.5</v>
       </c>
       <c r="R127" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V127" t="n">
         <v>8.5</v>
@@ -14138,7 +14688,7 @@
         <v>34</v>
       </c>
       <c r="AJ127" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
@@ -14173,49 +14723,49 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H128" t="n">
         <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J128" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L128" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O128" t="n">
+        <v>2</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R128" t="n">
         <v>1.67</v>
       </c>
-      <c r="O128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P128" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R128" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S128" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V128" t="n">
         <v>10</v>
@@ -14224,28 +14774,28 @@
         <v>26</v>
       </c>
       <c r="X128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z128" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC128" t="n">
         <v>41</v>
       </c>
       <c r="AD128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF128" t="n">
         <v>10</v>
@@ -14257,10 +14807,10 @@
         <v>19</v>
       </c>
       <c r="AI128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ128" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
@@ -14295,19 +14845,19 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H129" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L129" t="n">
         <v>1.22</v>
@@ -14316,10 +14866,10 @@
         <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O129" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P129" t="n">
         <v>1.33</v>
@@ -14334,28 +14884,28 @@
         <v>2.2</v>
       </c>
       <c r="T129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V129" t="n">
         <v>10</v>
       </c>
       <c r="W129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X129" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y129" t="n">
         <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB129" t="n">
         <v>13</v>
@@ -14376,7 +14926,7 @@
         <v>23</v>
       </c>
       <c r="AH129" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI129" t="n">
         <v>23</v>
@@ -14417,19 +14967,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I130" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L130" t="n">
         <v>1.25</v>
@@ -14438,16 +14988,16 @@
         <v>3.75</v>
       </c>
       <c r="N130" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O130" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P130" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q130" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R130" t="n">
         <v>1.75</v>
@@ -14459,22 +15009,22 @@
         <v>8</v>
       </c>
       <c r="U130" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
       </c>
       <c r="W130" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X130" t="n">
         <v>15</v>
       </c>
       <c r="Y130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
@@ -14483,10 +15033,10 @@
         <v>15</v>
       </c>
       <c r="AC130" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE130" t="n">
         <v>21</v>
@@ -14498,7 +15048,7 @@
         <v>41</v>
       </c>
       <c r="AH130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI130" t="n">
         <v>34</v>
@@ -14539,19 +15089,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H131" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I131" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L131" t="n">
         <v>1.2</v>
@@ -14661,13 +15211,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H132" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I132" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J132" t="n">
         <v>1.04</v>
@@ -14703,7 +15253,7 @@
         <v>8.5</v>
       </c>
       <c r="U132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V132" t="n">
         <v>8.5</v>
@@ -14733,13 +15283,13 @@
         <v>15</v>
       </c>
       <c r="AE132" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF132" t="n">
         <v>15</v>
       </c>
       <c r="AG132" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH132" t="n">
         <v>34</v>
@@ -14783,13 +15333,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H133" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I133" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -14806,66 +15356,68 @@
         <v>1.5</v>
       </c>
       <c r="P133" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R133" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S133" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U133" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V133" t="n">
         <v>12.5</v>
       </c>
       <c r="W133" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X133" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y133" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z133" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB133" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD133" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AE133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG133" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH133" t="n">
         <v>21</v>
       </c>
       <c r="AI133" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ133" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14899,13 +15451,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I134" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -14922,67 +15474,67 @@
         <v>1.57</v>
       </c>
       <c r="P134" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="R134" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S134" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T134" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="U134" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="V134" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="W134" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="X134" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y134" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA134" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB134" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD134" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AE134" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF134" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH134" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI134" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ134" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="135">
@@ -15017,90 +15569,90 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="H135" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>2.18</v>
+        <v>2.92</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M135" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="N135" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="O135" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="P135" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S135" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="T135" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V135" t="n">
+        <v>9</v>
+      </c>
+      <c r="W135" t="n">
+        <v>27</v>
+      </c>
+      <c r="X135" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE135" t="n">
         <v>15</v>
       </c>
-      <c r="V135" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="W135" t="n">
-        <v>40</v>
-      </c>
-      <c r="X135" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AF135" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AH135" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI135" t="n">
         <v>35</v>
       </c>
       <c r="AJ135" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.14</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
@@ -716,13 +716,13 @@
         <v>126</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>41</v>
@@ -767,25 +767,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -800,22 +800,22 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
         <v>23</v>
@@ -827,25 +827,25 @@
         <v>5.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
         <v>17</v>
       </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.17</v>
@@ -929,7 +929,7 @@
         <v>4.5</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -959,10 +959,10 @@
         <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>51</v>
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I5" t="n">
         <v>4.1</v>
@@ -1019,7 +1019,7 @@
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.8</v>
@@ -1034,7 +1034,7 @@
         <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.03</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
@@ -1184,7 +1184,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
         <v>8</v>
@@ -1247,19 +1247,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1268,16 +1268,16 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>2.63</v>
@@ -1298,16 +1298,16 @@
         <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>1.14</v>
@@ -1400,16 +1400,16 @@
         <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
@@ -1424,19 +1424,19 @@
         <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>101</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1490,16 +1490,16 @@
         <v>2.15</v>
       </c>
       <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.25</v>
@@ -1544,22 +1544,22 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
@@ -2052,10 +2052,10 @@
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2064,10 +2064,10 @@
         <v>2.63</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.53</v>
@@ -2165,13 +2165,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2186,10 +2186,10 @@
         <v>2.63</v>
       </c>
       <c r="N18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2210,7 +2210,7 @@
         <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W18" t="n">
         <v>26</v>
@@ -2228,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>67</v>
@@ -2246,7 +2246,7 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
@@ -2409,82 +2409,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V20" t="n">
         <v>9.25</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
         <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE20" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
         <v>50</v>
@@ -2493,7 +2493,7 @@
         <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
         <v>800</v>
@@ -2531,91 +2531,91 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R21" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T21" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="V21" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
         <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF21" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF21" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AG21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
     </row>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H22" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -2669,13 +2669,13 @@
         <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -2684,16 +2684,16 @@
         <v>2.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
@@ -2714,25 +2714,25 @@
         <v>5.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI22" t="n">
         <v>40</v>
@@ -2773,31 +2773,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
         <v>1.53</v>
@@ -2806,55 +2806,55 @@
         <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W23" t="n">
+        <v>67</v>
+      </c>
+      <c r="X23" t="n">
         <v>51</v>
       </c>
-      <c r="X23" t="n">
-        <v>41</v>
-      </c>
       <c r="Y23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z23" t="n">
         <v>6.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD23" t="n">
         <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF23" t="n">
         <v>9.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
         <v>41</v>
@@ -2895,94 +2895,94 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.87</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="N24" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>23</v>
+      </c>
+      <c r="V24" t="n">
+        <v>13</v>
+      </c>
+      <c r="W24" t="n">
+        <v>60</v>
+      </c>
+      <c r="X24" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF24" t="n">
         <v>8.75</v>
       </c>
-      <c r="U24" t="n">
-        <v>16</v>
-      </c>
-      <c r="V24" t="n">
-        <v>11</v>
-      </c>
-      <c r="W24" t="n">
-        <v>37</v>
-      </c>
-      <c r="X24" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10</v>
-      </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25">
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H25" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3032,79 +3032,79 @@
         <v>7.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S25" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W25" t="n">
         <v>37</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
         <v>7.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26">
@@ -3514,10 +3514,10 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -3627,25 +3627,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="N30" t="n">
         <v>2.15</v>
@@ -3654,10 +3654,10 @@
         <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
@@ -3669,22 +3669,22 @@
         <v>5.7</v>
       </c>
       <c r="U30" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
       </c>
       <c r="W30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
         <v>37</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA30" t="n">
         <v>7</v>
@@ -3696,13 +3696,13 @@
         <v>120</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>90</v>
@@ -3749,10 +3749,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
         <v>2.47</v>
@@ -3761,64 +3761,64 @@
         <v>1.08</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M31" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="N31" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="O31" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="U31" t="n">
         <v>13.5</v>
       </c>
       <c r="V31" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W31" t="n">
         <v>32</v>
       </c>
       <c r="X31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -3827,16 +3827,16 @@
         <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
         <v>3.05</v>
@@ -4111,49 +4111,49 @@
         <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="N34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
       </c>
       <c r="P34" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R34" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
         <v>1.78</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V34" t="n">
         <v>9.25</v>
       </c>
       <c r="W34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -4162,7 +4162,7 @@
         <v>80</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -4174,7 +4174,7 @@
         <v>40</v>
       </c>
       <c r="AH34" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
         <v>40</v>
@@ -4458,7 +4458,7 @@
         <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -4467,7 +4467,7 @@
         <v>1.08</v>
       </c>
       <c r="K37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -4512,7 +4512,7 @@
         <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
@@ -4639,13 +4639,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>1.01</v>
@@ -4674,16 +4674,16 @@
         <v>2.1</v>
       </c>
       <c r="T39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" t="n">
         <v>9</v>
       </c>
-      <c r="U39" t="n">
-        <v>12</v>
-      </c>
-      <c r="V39" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -4704,19 +4704,19 @@
         <v>41</v>
       </c>
       <c r="AD39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF39" t="n">
         <v>11</v>
       </c>
       <c r="AG39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
         <v>29</v>
@@ -4903,7 +4903,7 @@
         <v>2.03</v>
       </c>
       <c r="O41" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="H45" t="n">
         <v>5.9</v>
       </c>
       <c r="I45" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5382,55 +5382,55 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W45" t="n">
+        <v>200</v>
+      </c>
+      <c r="X45" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>250</v>
-      </c>
-      <c r="X45" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>350</v>
       </c>
     </row>
     <row r="46">
@@ -5468,60 +5468,60 @@
         <v>1.65</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O46" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U46" t="n">
         <v>7.3</v>
       </c>
-      <c r="U46" t="n">
-        <v>7.6</v>
-      </c>
       <c r="V46" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W46" t="n">
+        <v>11</v>
+      </c>
+      <c r="X46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="n">
         <v>11.25</v>
       </c>
-      <c r="X46" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="n">
         <v>11.5</v>
@@ -5530,13 +5530,13 @@
         <v>50</v>
       </c>
       <c r="AH46" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47">
@@ -5714,10 +5714,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O48" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P48" t="n">
         <v>1.33</v>
@@ -5815,13 +5815,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -5830,13 +5830,13 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O49" t="n">
         <v>2.1</v>
@@ -5866,10 +5866,10 @@
         <v>26</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
         <v>13</v>
@@ -5893,7 +5893,7 @@
         <v>10</v>
       </c>
       <c r="AG49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH49" t="n">
         <v>19</v>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
@@ -6179,19 +6179,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J52" t="n">
         <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L52" t="n">
         <v>1.25</v>
@@ -6200,10 +6200,10 @@
         <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O52" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -6221,7 +6221,7 @@
         <v>7.5</v>
       </c>
       <c r="U52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V52" t="n">
         <v>8.5</v>
@@ -6233,7 +6233,7 @@
         <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
         <v>12</v>
@@ -6242,7 +6242,7 @@
         <v>7.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
         <v>51</v>
@@ -6260,7 +6260,7 @@
         <v>41</v>
       </c>
       <c r="AH52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI52" t="n">
         <v>34</v>
@@ -6421,13 +6421,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J54" t="n">
         <v>1.08</v>
@@ -6442,10 +6442,10 @@
         <v>2.75</v>
       </c>
       <c r="N54" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O54" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P54" t="n">
         <v>1.5</v>
@@ -6454,10 +6454,10 @@
         <v>2.5</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S54" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T54" t="n">
         <v>8</v>
@@ -6466,13 +6466,13 @@
         <v>13</v>
       </c>
       <c r="V54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y54" t="n">
         <v>41</v>
@@ -6549,13 +6549,13 @@
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
         <v>1.29</v>
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U55" t="n">
         <v>10</v>
@@ -6609,7 +6609,7 @@
         <v>13</v>
       </c>
       <c r="AC55" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD55" t="n">
         <v>11</v>
@@ -6618,7 +6618,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG55" t="n">
         <v>41</v>
@@ -6671,13 +6671,13 @@
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
         <v>1.3</v>
@@ -6713,7 +6713,7 @@
         <v>9.5</v>
       </c>
       <c r="W56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -6734,7 +6734,7 @@
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -7052,10 +7052,10 @@
         <v>3.25</v>
       </c>
       <c r="N59" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O59" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P59" t="n">
         <v>1.44</v>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
@@ -7430,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -8005,13 +8005,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="I67" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8024,31 +8024,31 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U67" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="V67" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X67" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z67" t="n">
         <v>30</v>
       </c>
-      <c r="Z67" t="n">
-        <v>32</v>
-      </c>
       <c r="AA67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC67" t="n">
         <v>120</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AI67" t="n">
         <v>150</v>
@@ -8105,13 +8105,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H68" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="I68" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8124,50 +8124,50 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
+        <v>9</v>
+      </c>
+      <c r="U68" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V68" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W68" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X68" t="n">
         <v>9.25</v>
       </c>
-      <c r="U68" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="V68" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W68" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X68" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y68" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB68" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC68" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD68" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE68" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF68" t="n">
         <v>65</v>
       </c>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI68" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ68" t="inlineStr"/>
     </row>
@@ -8203,10 +8203,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I69" t="n">
         <v>1.75</v>
@@ -8216,54 +8216,54 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P69" t="n">
         <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U69" t="n">
         <v>17</v>
       </c>
       <c r="V69" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W69" t="n">
         <v>50</v>
       </c>
       <c r="X69" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA69" t="n">
         <v>5.9</v>
       </c>
       <c r="AB69" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD69" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF69" t="n">
         <v>7.2</v>
@@ -8275,10 +8275,10 @@
         <v>12.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70">
@@ -8313,82 +8313,82 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O70" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P70" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U70" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="V70" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W70" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X70" t="n">
         <v>11.25</v>
       </c>
       <c r="Y70" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z70" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA70" t="n">
         <v>6</v>
       </c>
       <c r="AB70" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC70" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF70" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG70" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ70" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71">
@@ -8423,27 +8423,27 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H71" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M71" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N71" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O71" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
         <v>1.52</v>
       </c>
       <c r="S71" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T71" t="n">
         <v>10.25</v>
@@ -8463,28 +8463,28 @@
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X71" t="n">
         <v>20</v>
       </c>
       <c r="Y71" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC71" t="n">
         <v>40</v>
       </c>
       <c r="AD71" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -8499,7 +8499,7 @@
         <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ71" t="n">
         <v>250</v>
@@ -8652,36 +8652,92 @@
           <t>Dcheira</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T73" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U73" t="n">
+        <v>9</v>
+      </c>
+      <c r="V73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9100,10 +9156,10 @@
         <v>13</v>
       </c>
       <c r="L79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M79" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
         <v>1.75</v>
@@ -9219,13 +9275,13 @@
         <v>1.02</v>
       </c>
       <c r="K80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L80" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N80" t="n">
         <v>1.5</v>
@@ -9329,13 +9385,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H81" t="n">
         <v>3.6</v>
       </c>
       <c r="I81" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J81" t="n">
         <v>1.03</v>
@@ -9386,7 +9442,7 @@
         <v>23</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
         <v>7</v>
@@ -9404,7 +9460,7 @@
         <v>15</v>
       </c>
       <c r="AF81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG81" t="n">
         <v>29</v>
@@ -9707,7 +9763,7 @@
         <v>1.04</v>
       </c>
       <c r="K84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L84" t="n">
         <v>1.22</v>
@@ -9734,7 +9790,7 @@
         <v>2.1</v>
       </c>
       <c r="T84" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U84" t="n">
         <v>9.5</v>
@@ -9758,7 +9814,7 @@
         <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC84" t="n">
         <v>41</v>
@@ -9782,7 +9838,7 @@
         <v>34</v>
       </c>
       <c r="AJ84" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
@@ -10548,16 +10604,16 @@
         <v>2.88</v>
       </c>
       <c r="J92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N92" t="n">
         <v>2.05</v>
@@ -10783,13 +10839,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J94" t="n">
         <v>1.05</v>
@@ -11149,13 +11205,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H97" t="n">
         <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J97" t="n">
         <v>1.05</v>
@@ -11227,7 +11283,7 @@
         <v>10</v>
       </c>
       <c r="AG97" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH97" t="n">
         <v>21</v>
@@ -11271,13 +11327,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H98" t="n">
         <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J98" t="n">
         <v>1.08</v>
@@ -11313,10 +11369,10 @@
         <v>8</v>
       </c>
       <c r="U98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W98" t="n">
         <v>26</v>
@@ -11349,7 +11405,7 @@
         <v>11</v>
       </c>
       <c r="AG98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH98" t="n">
         <v>23</v>
@@ -11405,7 +11461,7 @@
         <v>1.08</v>
       </c>
       <c r="K99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L99" t="n">
         <v>1.44</v>
@@ -11574,36 +11630,96 @@
           <t>Murcia</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T101" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U101" t="n">
+        <v>10</v>
+      </c>
+      <c r="V101" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>22</v>
+      </c>
+      <c r="X101" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11636,36 +11752,96 @@
           <t>Ponferradina</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
-      <c r="AH102" t="inlineStr"/>
-      <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>10</v>
+      </c>
+      <c r="W102" t="n">
+        <v>35</v>
+      </c>
+      <c r="X102" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11711,7 +11887,7 @@
         <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L103" t="n">
         <v>1.3</v>
@@ -11720,10 +11896,10 @@
         <v>3.4</v>
       </c>
       <c r="N103" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O103" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P103" t="n">
         <v>1.4</v>
@@ -11738,7 +11914,7 @@
         <v>1.95</v>
       </c>
       <c r="T103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U103" t="n">
         <v>9.5</v>
@@ -11783,7 +11959,7 @@
         <v>29</v>
       </c>
       <c r="AI103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ103" t="n">
         <v>251</v>
@@ -12226,16 +12402,16 @@
         <v>1.75</v>
       </c>
       <c r="T107" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U107" t="n">
         <v>6.5</v>
       </c>
       <c r="V107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X107" t="n">
         <v>11</v>
@@ -12580,22 +12756,22 @@
         <v>2.88</v>
       </c>
       <c r="P110" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q110" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R110" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S110" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T110" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V110" t="n">
         <v>9</v>
@@ -12675,13 +12851,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H111" t="n">
         <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J111" t="n">
         <v>1.01</v>
@@ -12720,7 +12896,7 @@
         <v>12</v>
       </c>
       <c r="V111" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W111" t="n">
         <v>13</v>
@@ -12729,7 +12905,7 @@
         <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z111" t="n">
         <v>29</v>
@@ -12741,7 +12917,7 @@
         <v>13</v>
       </c>
       <c r="AC111" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD111" t="n">
         <v>29</v>
@@ -12753,10 +12929,10 @@
         <v>19</v>
       </c>
       <c r="AG111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH111" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI111" t="n">
         <v>29</v>
@@ -13405,87 +13581,91 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="H117" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4.35</v>
+      </c>
       <c r="L117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="M117" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="N117" t="n">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="O117" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="P117" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="R117" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="S117" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T117" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="U117" t="n">
-        <v>9.75</v>
+        <v>7.2</v>
       </c>
       <c r="V117" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W117" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="X117" t="n">
         <v>23</v>
       </c>
       <c r="Y117" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Z117" t="n">
-        <v>6.2</v>
+        <v>4.65</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB117" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AC117" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AD117" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AE117" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF117" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AG117" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AI117" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="inlineStr"/>
     </row>
@@ -13753,87 +13933,87 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H120" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I120" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M120" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="N120" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O120" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="P120" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="R120" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="S120" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="T120" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U120" t="n">
+        <v>9</v>
+      </c>
+      <c r="V120" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W120" t="n">
+        <v>22</v>
+      </c>
+      <c r="X120" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z120" t="n">
         <v>5.9</v>
       </c>
-      <c r="U120" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V120" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W120" t="n">
-        <v>21</v>
-      </c>
-      <c r="X120" t="n">
+      <c r="AA120" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB120" t="n">
         <v>22</v>
       </c>
-      <c r="Y120" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z120" t="n">
+      <c r="AC120" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD120" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>7.3</v>
       </c>
       <c r="AE120" t="n">
         <v>14.5</v>
       </c>
       <c r="AF120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG120" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH120" t="n">
         <v>40</v>
       </c>
-      <c r="AH120" t="n">
-        <v>35</v>
-      </c>
       <c r="AI120" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ120" t="inlineStr"/>
     </row>
@@ -13872,28 +14052,28 @@
         <v>2.05</v>
       </c>
       <c r="H121" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L121" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M121" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N121" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="O121" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P121" t="n">
         <v>1.25</v>
@@ -13902,10 +14082,10 @@
         <v>3.75</v>
       </c>
       <c r="R121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T121" t="n">
         <v>12</v>
@@ -13926,16 +14106,16 @@
         <v>19</v>
       </c>
       <c r="Z121" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB121" t="n">
         <v>11</v>
       </c>
       <c r="AC121" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD121" t="n">
         <v>15</v>
@@ -13950,13 +14130,13 @@
         <v>34</v>
       </c>
       <c r="AH121" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI121" t="n">
         <v>23</v>
       </c>
       <c r="AJ121" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122">
@@ -13991,13 +14171,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H122" t="n">
         <v>3.7</v>
       </c>
       <c r="I122" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
@@ -14033,7 +14213,7 @@
         <v>8</v>
       </c>
       <c r="U122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
@@ -14054,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="AB122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC122" t="n">
         <v>41</v>
@@ -14072,7 +14252,7 @@
         <v>41</v>
       </c>
       <c r="AH122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI122" t="n">
         <v>34</v>
@@ -14113,13 +14293,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H123" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I123" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>1.04</v>
@@ -14191,13 +14371,13 @@
         <v>11</v>
       </c>
       <c r="AG123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ123" t="n">
         <v>151</v>
@@ -14235,13 +14415,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I124" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J124" t="n">
         <v>1.03</v>
@@ -14256,10 +14436,10 @@
         <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O124" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P124" t="n">
         <v>1.29</v>
@@ -14268,10 +14448,10 @@
         <v>3.5</v>
       </c>
       <c r="R124" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S124" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T124" t="n">
         <v>9</v>
@@ -14283,10 +14463,10 @@
         <v>8.5</v>
       </c>
       <c r="W124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y124" t="n">
         <v>21</v>
@@ -14295,22 +14475,22 @@
         <v>15</v>
       </c>
       <c r="AA124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC124" t="n">
         <v>41</v>
       </c>
       <c r="AD124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE124" t="n">
         <v>34</v>
       </c>
       <c r="AF124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG124" t="n">
         <v>67</v>
@@ -14357,19 +14537,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H125" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J125" t="n">
         <v>1.02</v>
       </c>
       <c r="K125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L125" t="n">
         <v>1.13</v>
@@ -14378,10 +14558,10 @@
         <v>6</v>
       </c>
       <c r="N125" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O125" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P125" t="n">
         <v>1.22</v>
@@ -14390,16 +14570,16 @@
         <v>4</v>
       </c>
       <c r="R125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S125" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T125" t="n">
         <v>13</v>
       </c>
       <c r="U125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V125" t="n">
         <v>9.5</v>
@@ -14414,13 +14594,13 @@
         <v>19</v>
       </c>
       <c r="Z125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC125" t="n">
         <v>29</v>
@@ -14441,7 +14621,7 @@
         <v>21</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ125" t="n">
         <v>81</v>
@@ -14479,19 +14659,19 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H126" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I126" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L126" t="n">
         <v>1.2</v>
@@ -14560,7 +14740,7 @@
         <v>41</v>
       </c>
       <c r="AH126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI126" t="n">
         <v>29</v>
@@ -14604,10 +14784,10 @@
         <v>1.67</v>
       </c>
       <c r="H127" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I127" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J127" t="n">
         <v>1.03</v>
@@ -14634,10 +14814,10 @@
         <v>3.5</v>
       </c>
       <c r="R127" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T127" t="n">
         <v>9.5</v>
@@ -14664,7 +14844,7 @@
         <v>7.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
@@ -14676,7 +14856,7 @@
         <v>29</v>
       </c>
       <c r="AF127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG127" t="n">
         <v>51</v>
@@ -14723,13 +14903,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -14765,7 +14945,7 @@
         <v>10</v>
       </c>
       <c r="U128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V128" t="n">
         <v>10</v>
@@ -14792,7 +14972,7 @@
         <v>41</v>
       </c>
       <c r="AD128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE128" t="n">
         <v>13</v>
@@ -14845,13 +15025,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -14887,7 +15067,7 @@
         <v>10</v>
       </c>
       <c r="U129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V129" t="n">
         <v>10</v>
@@ -14899,7 +15079,7 @@
         <v>19</v>
       </c>
       <c r="Y129" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z129" t="n">
         <v>13</v>
@@ -14920,10 +15100,10 @@
         <v>13</v>
       </c>
       <c r="AF129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH129" t="n">
         <v>19</v>
@@ -14967,19 +15147,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H130" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J130" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K130" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L130" t="n">
         <v>1.25</v>
@@ -14994,22 +15174,22 @@
         <v>1.98</v>
       </c>
       <c r="P130" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q130" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R130" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S130" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T130" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
@@ -15018,13 +15198,13 @@
         <v>15</v>
       </c>
       <c r="X130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y130" t="n">
         <v>23</v>
       </c>
       <c r="Z130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
@@ -15033,25 +15213,25 @@
         <v>15</v>
       </c>
       <c r="AC130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD130" t="n">
         <v>13</v>
       </c>
       <c r="AE130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH130" t="n">
         <v>34</v>
       </c>
       <c r="AI130" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ130" t="n">
         <v>201</v>
@@ -15089,19 +15269,19 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L131" t="n">
         <v>1.2</v>
@@ -15122,25 +15302,25 @@
         <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S131" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U131" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V131" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y131" t="n">
         <v>21</v>
@@ -15149,10 +15329,10 @@
         <v>15</v>
       </c>
       <c r="AA131" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC131" t="n">
         <v>41</v>
@@ -15167,16 +15347,16 @@
         <v>11</v>
       </c>
       <c r="AG131" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI131" t="n">
         <v>26</v>
       </c>
       <c r="AJ131" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132">
@@ -15211,10 +15391,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H132" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I132" t="n">
         <v>4.5</v>
@@ -15226,16 +15406,16 @@
         <v>13</v>
       </c>
       <c r="L132" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M132" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N132" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O132" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P132" t="n">
         <v>1.3</v>
@@ -15283,7 +15463,7 @@
         <v>15</v>
       </c>
       <c r="AE132" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF132" t="n">
         <v>15</v>
@@ -15333,27 +15513,27 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="H133" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I133" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M133" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="N133" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P133" t="n">
         <v>1.47</v>
@@ -15362,55 +15542,55 @@
         <v>2.32</v>
       </c>
       <c r="R133" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S133" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T133" t="n">
+        <v>9</v>
+      </c>
+      <c r="U133" t="n">
+        <v>20</v>
+      </c>
+      <c r="V133" t="n">
+        <v>14</v>
+      </c>
+      <c r="W133" t="n">
+        <v>65</v>
+      </c>
+      <c r="X133" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE133" t="n">
         <v>8</v>
       </c>
-      <c r="U133" t="n">
-        <v>17</v>
-      </c>
-      <c r="V133" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W133" t="n">
-        <v>50</v>
-      </c>
-      <c r="X133" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF133" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG133" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH133" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI133" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ135"/>
+  <dimension ref="A1:AJ134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,10 +671,10 @@
         <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -791,19 +791,19 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
         <v>4.75</v>
@@ -911,10 +911,10 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>4.1</v>
@@ -1031,10 +1031,10 @@
         <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
         <v>2.03</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
         <v>3.9</v>
@@ -1514,7 +1514,7 @@
         <v>2.03</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
         <v>3.25</v>
@@ -2412,16 +2412,16 @@
         <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2445,13 +2445,13 @@
         <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V20" t="n">
         <v>9.25</v>
@@ -2463,25 +2463,25 @@
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE20" t="n">
         <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
         <v>12.5</v>
@@ -2490,7 +2490,7 @@
         <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2546,22 +2546,22 @@
         <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
         <v>2.1</v>
@@ -2570,19 +2570,19 @@
         <v>1.65</v>
       </c>
       <c r="T21" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="U21" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
         <v>40</v>
@@ -2591,7 +2591,7 @@
         <v>5.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB21" t="n">
         <v>18.5</v>
@@ -2600,19 +2600,19 @@
         <v>120</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3017,94 +3017,94 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="T25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="V25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W25" t="n">
+        <v>40</v>
+      </c>
+      <c r="X25" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y25" t="n">
         <v>37</v>
       </c>
-      <c r="X25" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>40</v>
-      </c>
       <c r="Z25" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -3410,7 +3410,7 @@
         <v>2.05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
         <v>3.25</v>
@@ -3749,19 +3749,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.37</v>
@@ -3782,34 +3782,34 @@
         <v>2.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
         <v>1.85</v>
       </c>
       <c r="T31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V31" t="n">
         <v>11</v>
       </c>
       <c r="W31" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y31" t="n">
         <v>40</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB31" t="n">
         <v>17</v>
@@ -3818,13 +3818,13 @@
         <v>90</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -4888,10 +4888,10 @@
         <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -4900,10 +4900,10 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5714,10 +5714,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O48" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P48" t="n">
         <v>1.33</v>
@@ -5815,13 +5815,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -5836,10 +5836,10 @@
         <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O49" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -5848,16 +5848,16 @@
         <v>3.25</v>
       </c>
       <c r="R49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
@@ -5884,10 +5884,10 @@
         <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
         <v>151</v>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.5</v>
@@ -5952,16 +5952,16 @@
         <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6191,7 +6191,7 @@
         <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" t="n">
         <v>1.25</v>
@@ -6200,10 +6200,10 @@
         <v>3.75</v>
       </c>
       <c r="N52" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -6310,10 +6310,10 @@
         <v>4.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6322,10 +6322,10 @@
         <v>2.63</v>
       </c>
       <c r="N53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P53" t="n">
         <v>1.53</v>
@@ -6442,10 +6442,10 @@
         <v>2.75</v>
       </c>
       <c r="N54" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O54" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P54" t="n">
         <v>1.5</v>
@@ -6552,10 +6552,10 @@
         <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
         <v>1.29</v>
@@ -6564,10 +6564,10 @@
         <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O55" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P55" t="n">
         <v>1.36</v>
@@ -6665,13 +6665,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J56" t="n">
         <v>1.06</v>
@@ -7052,10 +7052,10 @@
         <v>3.25</v>
       </c>
       <c r="N59" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="O59" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P59" t="n">
         <v>1.44</v>
@@ -7397,7 +7397,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
@@ -7430,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
         <v>2</v>
@@ -7528,10 +7528,10 @@
         <v>4.75</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
         <v>1.3</v>
@@ -7540,10 +7540,10 @@
         <v>3.4</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -7662,10 +7662,10 @@
         <v>3.25</v>
       </c>
       <c r="N64" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O64" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8024,7 +8024,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U67" t="n">
         <v>7.4</v>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AI67" t="n">
         <v>150</v>
@@ -8434,54 +8434,54 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N71" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O71" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S71" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V71" t="n">
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z71" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA71" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB71" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD71" t="n">
         <v>9.75</v>
@@ -8502,7 +8502,7 @@
         <v>25</v>
       </c>
       <c r="AJ71" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72">
@@ -9031,7 +9031,7 @@
         <v>1.03</v>
       </c>
       <c r="K78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L78" t="n">
         <v>1.18</v>
@@ -9275,7 +9275,7 @@
         <v>1.02</v>
       </c>
       <c r="K80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L80" t="n">
         <v>1.14</v>
@@ -10320,7 +10320,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>I71pZ6Op</t>
+          <t>U34Xflo4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pari NN</t>
+          <t>Akhmat Grozny</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sochi</t>
+          <t>Ural</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -10382,7 +10382,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>U34Xflo4</t>
+          <t>Eog4aZXI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10392,59 +10392,119 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Akhmat Grozny</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ural</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
+          <t>Daejeon</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K90" t="n">
+        <v>9</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T90" t="n">
+        <v>8</v>
+      </c>
+      <c r="U90" t="n">
+        <v>13</v>
+      </c>
+      <c r="V90" t="n">
+        <v>10</v>
+      </c>
+      <c r="W90" t="n">
+        <v>26</v>
+      </c>
+      <c r="X90" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Eog4aZXI</t>
+          <t>tYfd1e36</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10464,88 +10524,88 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J91" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N91" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="P91" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R91" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S91" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V91" t="n">
         <v>10</v>
       </c>
       <c r="W91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z91" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
       </c>
       <c r="AB91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC91" t="n">
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF91" t="n">
         <v>11</v>
@@ -10560,13 +10620,13 @@
         <v>34</v>
       </c>
       <c r="AJ91" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>tYfd1e36</t>
+          <t>p61m3HYg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10586,109 +10646,109 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Jeju SK</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>2.88</v>
+        <v>5.25</v>
       </c>
       <c r="J92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L92" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M92" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N92" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P92" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R92" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S92" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T92" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U92" t="n">
+        <v>7</v>
+      </c>
+      <c r="V92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>13</v>
+      </c>
+      <c r="X92" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD92" t="n">
         <v>12</v>
       </c>
-      <c r="V92" t="n">
-        <v>10</v>
-      </c>
-      <c r="W92" t="n">
-        <v>23</v>
-      </c>
-      <c r="X92" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC92" t="n">
+      <c r="AE92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG92" t="n">
         <v>51</v>
       </c>
-      <c r="AD92" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>29</v>
-      </c>
       <c r="AH92" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AI92" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ92" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>p61m3HYg</t>
+          <t>0SQRGOF6</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10698,119 +10758,119 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jeju SK</t>
+          <t>Hwaseong</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K93" t="n">
+        <v>11</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U93" t="n">
         <v>8.5</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P93" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R93" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T93" t="n">
-        <v>6</v>
-      </c>
-      <c r="U93" t="n">
-        <v>7</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
       </c>
       <c r="Y93" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z93" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA93" t="n">
         <v>7</v>
       </c>
       <c r="AB93" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC93" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE93" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG93" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI93" t="n">
         <v>41</v>
       </c>
-      <c r="AI93" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ93" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0SQRGOF6</t>
+          <t>nqPZE2pJ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -10830,76 +10890,76 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hwaseong</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K94" t="n">
+        <v>10</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R94" t="n">
         <v>1.73</v>
       </c>
-      <c r="H94" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K94" t="n">
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="n">
+        <v>8</v>
+      </c>
+      <c r="U94" t="n">
         <v>11</v>
       </c>
-      <c r="L94" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M94" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P94" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>3</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S94" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T94" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U94" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V94" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W94" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB94" t="n">
         <v>15</v>
@@ -10908,31 +10968,31 @@
         <v>51</v>
       </c>
       <c r="AD94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE94" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG94" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH94" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI94" t="n">
         <v>34</v>
       </c>
-      <c r="AI94" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ94" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>nqPZE2pJ</t>
+          <t>bNhhXq0m</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -10942,7 +11002,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -10952,76 +11012,76 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K95" t="n">
+        <v>9</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
         <v>2.15</v>
       </c>
-      <c r="H95" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K95" t="n">
-        <v>11</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M95" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1.98</v>
-      </c>
       <c r="O95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R95" t="n">
         <v>1.83</v>
       </c>
-      <c r="P95" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S95" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U95" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V95" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W95" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="X95" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y95" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z95" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB95" t="n">
         <v>15</v>
@@ -11030,31 +11090,31 @@
         <v>51</v>
       </c>
       <c r="AD95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE95" t="n">
         <v>10</v>
       </c>
-      <c r="AE95" t="n">
-        <v>17</v>
-      </c>
       <c r="AF95" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AH95" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI95" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ95" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bNhhXq0m</t>
+          <t>2i7Mx6xQ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -11074,76 +11134,76 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="H96" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="J96" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K96" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L96" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M96" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N96" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O96" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="P96" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R96" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S96" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U96" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W96" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X96" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y96" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z96" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB96" t="n">
         <v>15</v>
@@ -11152,31 +11212,31 @@
         <v>51</v>
       </c>
       <c r="AD96" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AE96" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF96" t="n">
         <v>10</v>
       </c>
-      <c r="AF96" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG96" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH96" t="n">
         <v>21</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>19</v>
       </c>
       <c r="AI96" t="n">
         <v>29</v>
       </c>
       <c r="AJ96" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2i7Mx6xQ</t>
+          <t>hGECmHVp</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11186,65 +11246,65 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K97" t="n">
+        <v>8</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q97" t="n">
         <v>2.63</v>
       </c>
-      <c r="J97" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>11</v>
-      </c>
-      <c r="L97" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M97" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O97" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R97" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S97" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T97" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U97" t="n">
         <v>12</v>
@@ -11253,19 +11313,19 @@
         <v>10</v>
       </c>
       <c r="W97" t="n">
+        <v>26</v>
+      </c>
+      <c r="X97" t="n">
         <v>23</v>
       </c>
-      <c r="X97" t="n">
-        <v>21</v>
-      </c>
       <c r="Y97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z97" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB97" t="n">
         <v>15</v>
@@ -11274,31 +11334,31 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE97" t="n">
         <v>13</v>
       </c>
       <c r="AF97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG97" t="n">
         <v>29</v>
       </c>
       <c r="AH97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI97" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ97" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hGECmHVp</t>
+          <t>ELa79bh4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11308,7 +11368,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11318,22 +11378,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="J98" t="n">
         <v>1.08</v>
@@ -11342,85 +11402,83 @@
         <v>8</v>
       </c>
       <c r="L98" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N98" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O98" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P98" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R98" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S98" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="T98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U98" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="V98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W98" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="X98" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y98" t="n">
         <v>34</v>
       </c>
       <c r="Z98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA98" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB98" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE98" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF98" t="n">
         <v>13</v>
       </c>
-      <c r="AF98" t="n">
-        <v>11</v>
-      </c>
       <c r="AG98" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH98" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI98" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>301</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AJ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ELa79bh4</t>
+          <t>rPoRF6f4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11430,117 +11488,59 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>2</v>
-      </c>
-      <c r="H99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K99" t="n">
-        <v>8</v>
-      </c>
-      <c r="L99" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N99" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O99" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P99" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R99" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S99" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T99" t="n">
-        <v>6</v>
-      </c>
-      <c r="U99" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V99" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W99" t="n">
-        <v>17</v>
-      </c>
-      <c r="X99" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>41</v>
-      </c>
+          <t>Cultural Leonesa</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rPoRF6f4</t>
+          <t>ABofshFD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -11560,49 +11560,109 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Gimnastic</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cultural Leonesa</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K100" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V100" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W100" t="n">
+        <v>22</v>
+      </c>
+      <c r="X100" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ABofshFD</t>
+          <t>pQy5aZUs</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11612,7 +11672,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11622,109 +11682,109 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Gimnastic</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ponferradina</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="H101" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="J101" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K101" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L101" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M101" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="O101" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="P101" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R101" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="S101" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T101" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U101" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>10</v>
+      </c>
+      <c r="W101" t="n">
+        <v>35</v>
+      </c>
+      <c r="X101" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z101" t="n">
         <v>6.6</v>
       </c>
-      <c r="U101" t="n">
-        <v>10</v>
-      </c>
-      <c r="V101" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W101" t="n">
+      <c r="AA101" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH101" t="n">
         <v>22</v>
       </c>
-      <c r="X101" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>29</v>
-      </c>
       <c r="AI101" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ101" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>pQy5aZUs</t>
+          <t>GWz1060E</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11734,119 +11794,119 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponferradina</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.82</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I102" t="n">
-        <v>2.57</v>
+        <v>3.4</v>
       </c>
       <c r="J102" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K102" t="n">
-        <v>6.6</v>
+        <v>9.5</v>
       </c>
       <c r="L102" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M102" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N102" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O102" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P102" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R102" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T102" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="U102" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="V102" t="n">
+        <v>9</v>
+      </c>
+      <c r="W102" t="n">
+        <v>19</v>
+      </c>
+      <c r="X102" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD102" t="n">
         <v>10</v>
       </c>
-      <c r="W102" t="n">
-        <v>35</v>
-      </c>
-      <c r="X102" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AE102" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AF102" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AG102" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH102" t="n">
         <v>29</v>
       </c>
-      <c r="AH102" t="n">
-        <v>22</v>
-      </c>
       <c r="AI102" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ102" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GWz1060E</t>
+          <t>pAXZuHc2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11866,109 +11926,109 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="H103" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="J103" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K103" t="n">
+        <v>15</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T103" t="n">
         <v>10</v>
       </c>
-      <c r="L103" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M103" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T103" t="n">
+      <c r="U103" t="n">
+        <v>13</v>
+      </c>
+      <c r="V103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>23</v>
+      </c>
+      <c r="X103" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA103" t="n">
         <v>7</v>
       </c>
-      <c r="U103" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V103" t="n">
-        <v>9</v>
-      </c>
-      <c r="W103" t="n">
+      <c r="AB103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH103" t="n">
         <v>19</v>
       </c>
-      <c r="X103" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>29</v>
-      </c>
       <c r="AI103" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ103" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>pAXZuHc2</t>
+          <t>fqsato9r</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -11988,40 +12048,40 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="H104" t="n">
         <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="J104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -12030,58 +12090,58 @@
         <v>3.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V104" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W104" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X104" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA104" t="n">
         <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE104" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ104" t="n">
         <v>151</v>
@@ -12090,7 +12150,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>fqsato9r</t>
+          <t>vPb89gio</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -12100,32 +12160,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I105" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
@@ -12152,28 +12212,28 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S105" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U105" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W105" t="n">
+        <v>41</v>
+      </c>
+      <c r="X105" t="n">
         <v>29</v>
       </c>
-      <c r="X105" t="n">
-        <v>21</v>
-      </c>
       <c r="Y105" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z105" t="n">
         <v>12</v>
@@ -12182,37 +12242,37 @@
         <v>7</v>
       </c>
       <c r="AB105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC105" t="n">
         <v>41</v>
       </c>
       <c r="AD105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE105" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI105" t="n">
         <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>vPb89gio</t>
+          <t>6VjfXdqh</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12232,109 +12292,109 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="H106" t="n">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="I106" t="n">
-        <v>1.83</v>
+        <v>11</v>
       </c>
       <c r="J106" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K106" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L106" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="M106" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N106" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="O106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R106" t="n">
         <v>2</v>
       </c>
-      <c r="P106" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R106" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S106" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T106" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="U106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>8</v>
+      </c>
+      <c r="X106" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB106" t="n">
         <v>21</v>
       </c>
-      <c r="V106" t="n">
-        <v>13</v>
-      </c>
-      <c r="W106" t="n">
-        <v>41</v>
-      </c>
-      <c r="X106" t="n">
+      <c r="AC106" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD106" t="n">
         <v>29</v>
       </c>
-      <c r="Y106" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>8</v>
-      </c>
       <c r="AE106" t="n">
-        <v>9.5</v>
+        <v>51</v>
       </c>
       <c r="AF106" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AG106" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="AH106" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AI106" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ106" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6VjfXdqh</t>
+          <t>KhcATErH</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12344,7 +12404,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12354,109 +12414,109 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K107" t="n">
+        <v>13</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>9</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10</v>
+      </c>
+      <c r="V107" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>17</v>
+      </c>
+      <c r="X107" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD107" t="n">
         <v>15</v>
       </c>
-      <c r="L107" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M107" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O107" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P107" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R107" t="n">
-        <v>2</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T107" t="n">
-        <v>8</v>
-      </c>
-      <c r="U107" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V107" t="n">
-        <v>9</v>
-      </c>
-      <c r="W107" t="n">
-        <v>8</v>
-      </c>
-      <c r="X107" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB107" t="n">
+      <c r="AE107" t="n">
         <v>23</v>
       </c>
-      <c r="AC107" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>51</v>
-      </c>
       <c r="AF107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH107" t="n">
         <v>29</v>
       </c>
-      <c r="AG107" t="n">
+      <c r="AI107" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ107" t="n">
         <v>151</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>351</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KhcATErH</t>
+          <t>fiNyFFTN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12476,22 +12536,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="J108" t="n">
         <v>1.04</v>
@@ -12500,22 +12560,22 @@
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O108" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R108" t="n">
         <v>1.62</v>
@@ -12524,22 +12584,22 @@
         <v>2.2</v>
       </c>
       <c r="T108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U108" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V108" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W108" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="X108" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y108" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z108" t="n">
         <v>13</v>
@@ -12548,28 +12608,28 @@
         <v>7</v>
       </c>
       <c r="AB108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC108" t="n">
         <v>41</v>
       </c>
       <c r="AD108" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE108" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AF108" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG108" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AH108" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AI108" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ108" t="n">
         <v>151</v>
@@ -12578,7 +12638,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>fiNyFFTN</t>
+          <t>fRZ1gpuA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12593,114 +12653,114 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="H109" t="n">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="I109" t="n">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="J109" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K109" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L109" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="M109" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="O109" t="n">
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="P109" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="R109" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S109" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T109" t="n">
+        <v>12</v>
+      </c>
+      <c r="U109" t="n">
         <v>10</v>
       </c>
-      <c r="U109" t="n">
-        <v>13</v>
-      </c>
       <c r="V109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W109" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="X109" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y109" t="n">
         <v>19</v>
       </c>
-      <c r="Y109" t="n">
-        <v>26</v>
-      </c>
       <c r="Z109" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA109" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB109" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC109" t="n">
         <v>41</v>
       </c>
       <c r="AD109" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE109" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AF109" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG109" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AH109" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI109" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ109" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fRZ1gpuA</t>
+          <t>8Yg7X2Ij</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12720,109 +12780,109 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H110" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J110" t="n">
         <v>1.01</v>
       </c>
       <c r="K110" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L110" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="M110" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
         <v>1.4</v>
       </c>
-      <c r="O110" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P110" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R110" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S110" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="T110" t="n">
+        <v>15</v>
+      </c>
+      <c r="U110" t="n">
         <v>12</v>
       </c>
-      <c r="U110" t="n">
-        <v>10</v>
-      </c>
       <c r="V110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X110" t="n">
         <v>11</v>
       </c>
       <c r="Y110" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z110" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA110" t="n">
         <v>11</v>
       </c>
       <c r="AB110" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC110" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE110" t="n">
         <v>41</v>
       </c>
-      <c r="AD110" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>34</v>
-      </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG110" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH110" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ110" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>8Yg7X2Ij</t>
+          <t>2iwAiO9M</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12832,7 +12892,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12842,22 +12902,22 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.44</v>
+        <v>5.25</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I111" t="n">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="J111" t="n">
         <v>1.01</v>
@@ -12866,22 +12926,22 @@
         <v>26</v>
       </c>
       <c r="L111" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N111" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="O111" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P111" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Q111" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R111" t="n">
         <v>1.4</v>
@@ -12890,22 +12950,22 @@
         <v>2.75</v>
       </c>
       <c r="T111" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="U111" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="V111" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="W111" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="X111" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Y111" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Z111" t="n">
         <v>29</v>
@@ -12920,22 +12980,22 @@
         <v>29</v>
       </c>
       <c r="AD111" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE111" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF111" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AG111" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AH111" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AI111" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AJ111" t="n">
         <v>81</v>
@@ -12944,7 +13004,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2iwAiO9M</t>
+          <t>K8LJt7e4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12964,109 +13024,109 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="H112" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I112" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="J112" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K112" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L112" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="M112" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="N112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P112" t="n">
         <v>1.3</v>
       </c>
-      <c r="O112" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P112" t="n">
-        <v>1.18</v>
-      </c>
       <c r="Q112" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R112" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S112" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="T112" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="U112" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="V112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W112" t="n">
         <v>17</v>
       </c>
-      <c r="W112" t="n">
-        <v>51</v>
-      </c>
       <c r="X112" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="Y112" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z112" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AA112" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AB112" t="n">
         <v>13</v>
       </c>
       <c r="AC112" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH112" t="n">
         <v>29</v>
       </c>
-      <c r="AD112" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>11</v>
-      </c>
       <c r="AI112" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ112" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>K8LJt7e4</t>
+          <t>ryIFDYFG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -13076,119 +13136,119 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="H113" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I113" t="n">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="J113" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K113" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L113" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="M113" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="N113" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="O113" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="P113" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="R113" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="S113" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="T113" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U113" t="n">
+        <v>13</v>
+      </c>
+      <c r="V113" t="n">
+        <v>11</v>
+      </c>
+      <c r="W113" t="n">
+        <v>29</v>
+      </c>
+      <c r="X113" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF113" t="n">
         <v>10</v>
       </c>
-      <c r="V113" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W113" t="n">
-        <v>17</v>
-      </c>
-      <c r="X113" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC113" t="n">
+      <c r="AG113" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI113" t="n">
         <v>41</v>
       </c>
-      <c r="AD113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ113" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ryIFDYFG</t>
+          <t>G0bY0eWA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -13198,7 +13258,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -13208,64 +13268,64 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K114" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P114" t="n">
         <v>1.44</v>
       </c>
-      <c r="M114" t="n">
+      <c r="Q114" t="n">
         <v>2.63</v>
       </c>
-      <c r="N114" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P114" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R114" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S114" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T114" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W114" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X114" t="n">
         <v>29</v>
@@ -13274,43 +13334,43 @@
         <v>41</v>
       </c>
       <c r="Z114" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
       </c>
       <c r="AB114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH114" t="n">
         <v>19</v>
       </c>
-      <c r="AC114" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>23</v>
-      </c>
       <c r="AI114" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>G0bY0eWA</t>
+          <t>8bwDgDOp</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -13320,7 +13380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -13330,109 +13390,107 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.2</v>
       </c>
-      <c r="H115" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R115" t="n">
         <v>2.2</v>
       </c>
-      <c r="J115" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K115" t="n">
-        <v>9</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O115" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P115" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R115" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S115" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W115" t="n">
+        <v>41</v>
+      </c>
+      <c r="X115" t="n">
         <v>34</v>
-      </c>
-      <c r="X115" t="n">
-        <v>29</v>
       </c>
       <c r="Y115" t="n">
         <v>41</v>
       </c>
       <c r="Z115" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA115" t="n">
         <v>6.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC115" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD115" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AE115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF115" t="n">
         <v>10</v>
       </c>
-      <c r="AF115" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG115" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH115" t="n">
         <v>21</v>
       </c>
-      <c r="AH115" t="n">
-        <v>19</v>
-      </c>
       <c r="AI115" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>351</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AJ115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>8bwDgDOp</t>
+          <t>hYgGQSuA</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -13442,117 +13500,117 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Uruguay Montevideo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>1.93</v>
       </c>
       <c r="H116" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="J116" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K116" t="n">
-        <v>6.5</v>
+        <v>4.35</v>
       </c>
       <c r="L116" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="M116" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="N116" t="n">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="O116" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="P116" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="R116" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="S116" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T116" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="U116" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF116" t="n">
         <v>17</v>
       </c>
-      <c r="V116" t="n">
-        <v>13</v>
-      </c>
-      <c r="W116" t="n">
-        <v>41</v>
-      </c>
-      <c r="X116" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>10</v>
-      </c>
       <c r="AG116" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="AH116" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AI116" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>hYgGQSuA</t>
+          <t>QohOO6AM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13562,7 +13620,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -13572,107 +13630,103 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo</t>
+          <t>Albion</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I117" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.35</v>
-      </c>
+        <v>3.05</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S117" t="n">
         <v>1.62</v>
       </c>
-      <c r="M117" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N117" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P117" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R117" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S117" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T117" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="U117" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="V117" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W117" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="X117" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y117" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Z117" t="n">
-        <v>4.65</v>
+        <v>6.2</v>
       </c>
       <c r="AA117" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB117" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AD117" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AE117" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF117" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AG117" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AH117" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AI117" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>QohOO6AM</t>
+          <t>pWYfJpYq</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13692,22 +13746,22 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Albion</t>
+          <t>Cerrito</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Rentistas</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.47</v>
+        <v>3.45</v>
       </c>
       <c r="H118" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I118" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -13715,7 +13769,7 @@
         <v>1.5</v>
       </c>
       <c r="M118" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N118" t="n">
         <v>2.42</v>
@@ -13730,65 +13784,65 @@
         <v>2.18</v>
       </c>
       <c r="R118" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S118" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T118" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="U118" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="V118" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="W118" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="X118" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y118" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI118" t="n">
         <v>45</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>55</v>
       </c>
       <c r="AJ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>pWYfJpYq</t>
+          <t>hdx3HO2d</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13798,7 +13852,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -13808,103 +13862,103 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Central Esp.</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="H119" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I119" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M119" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="N119" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="O119" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P119" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="S119" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="T119" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="U119" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="V119" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="W119" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="X119" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Y119" t="n">
         <v>55</v>
       </c>
       <c r="Z119" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AA119" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB119" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AC119" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD119" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE119" t="n">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AG119" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AH119" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AI119" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AJ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>hdx3HO2d</t>
+          <t>pvHU1IdD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13914,113 +13968,119 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Central Esp.</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="H120" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
       <c r="I120" t="n">
         <v>3.2</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K120" t="n">
+        <v>19</v>
+      </c>
       <c r="L120" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="M120" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="N120" t="n">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="O120" t="n">
-        <v>1.38</v>
+        <v>2.7</v>
       </c>
       <c r="P120" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="R120" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="S120" t="n">
-        <v>1.52</v>
+        <v>2.63</v>
       </c>
       <c r="T120" t="n">
-        <v>5.4</v>
+        <v>12</v>
       </c>
       <c r="U120" t="n">
+        <v>13</v>
+      </c>
+      <c r="V120" t="n">
         <v>9</v>
       </c>
-      <c r="V120" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W120" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X120" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y120" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="Z120" t="n">
-        <v>5.9</v>
+        <v>19</v>
       </c>
       <c r="AA120" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AB120" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC120" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="AD120" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AE120" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AF120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG120" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AH120" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI120" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ120" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>pvHU1IdD</t>
+          <t>bLNt9Z3t</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -14030,7 +14090,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -14040,109 +14100,109 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K121" t="n">
+        <v>13</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S121" t="n">
         <v>2.05</v>
       </c>
-      <c r="H121" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K121" t="n">
-        <v>19</v>
-      </c>
-      <c r="L121" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P121" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.63</v>
-      </c>
       <c r="T121" t="n">
+        <v>8</v>
+      </c>
+      <c r="U121" t="n">
+        <v>9</v>
+      </c>
+      <c r="V121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W121" t="n">
+        <v>15</v>
+      </c>
+      <c r="X121" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z121" t="n">
         <v>12</v>
       </c>
-      <c r="U121" t="n">
+      <c r="AA121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB121" t="n">
         <v>13</v>
       </c>
-      <c r="V121" t="n">
-        <v>9</v>
-      </c>
-      <c r="W121" t="n">
-        <v>21</v>
-      </c>
-      <c r="X121" t="n">
+      <c r="AC121" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF121" t="n">
         <v>15</v>
       </c>
-      <c r="Y121" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>12</v>
-      </c>
       <c r="AG121" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH121" t="n">
         <v>34</v>
       </c>
-      <c r="AH121" t="n">
-        <v>21</v>
-      </c>
       <c r="AI121" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ121" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bLNt9Z3t</t>
+          <t>tOLD192U</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -14152,7 +14212,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -14162,28 +14222,28 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="H122" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I122" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
       </c>
       <c r="K122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L122" t="n">
         <v>1.22</v>
@@ -14192,10 +14252,10 @@
         <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P122" t="n">
         <v>1.33</v>
@@ -14204,67 +14264,67 @@
         <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S122" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U122" t="n">
+        <v>12</v>
+      </c>
+      <c r="V122" t="n">
         <v>9</v>
       </c>
-      <c r="V122" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W122" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y122" t="n">
         <v>23</v>
       </c>
       <c r="Z122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA122" t="n">
         <v>7</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC122" t="n">
         <v>41</v>
       </c>
       <c r="AD122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE122" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH122" t="n">
         <v>21</v>
       </c>
-      <c r="AF122" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>34</v>
-      </c>
       <c r="AI122" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ122" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>tOLD192U</t>
+          <t>SEfWJjIb</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -14284,100 +14344,100 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="J123" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L123" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="M123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N123" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S123" t="n">
         <v>2.05</v>
-      </c>
-      <c r="P123" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R123" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S123" t="n">
-        <v>2.1</v>
       </c>
       <c r="T123" t="n">
         <v>9</v>
       </c>
       <c r="U123" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W123" t="n">
+        <v>11</v>
+      </c>
+      <c r="X123" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y123" t="n">
         <v>21</v>
       </c>
-      <c r="X123" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>23</v>
-      </c>
       <c r="Z123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA123" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC123" t="n">
         <v>41</v>
       </c>
       <c r="AD123" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE123" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF123" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG123" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AH123" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI123" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ123" t="n">
         <v>151</v>
@@ -14386,7 +14446,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SEfWJjIb</t>
+          <t>Wn1NLCmn</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -14406,109 +14466,109 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H124" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="J124" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K124" t="n">
+        <v>21</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M124" t="n">
+        <v>6</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T124" t="n">
+        <v>13</v>
+      </c>
+      <c r="U124" t="n">
         <v>15</v>
       </c>
-      <c r="L124" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M124" t="n">
-        <v>5</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P124" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S124" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T124" t="n">
-        <v>9</v>
-      </c>
-      <c r="U124" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V124" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W124" t="n">
+        <v>21</v>
+      </c>
+      <c r="X124" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB124" t="n">
         <v>11</v>
       </c>
-      <c r="X124" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y124" t="n">
+      <c r="AC124" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE124" t="n">
         <v>21</v>
       </c>
-      <c r="Z124" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE124" t="n">
+      <c r="AF124" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG124" t="n">
         <v>34</v>
       </c>
-      <c r="AF124" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>67</v>
-      </c>
       <c r="AH124" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AI124" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AJ124" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Wn1NLCmn</t>
+          <t>K8X43VXH</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -14528,109 +14588,109 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I125" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J125" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K125" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L125" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="M125" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="N125" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="O125" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="P125" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Q125" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R125" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="T125" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U125" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V125" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W125" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X125" t="n">
         <v>15</v>
       </c>
       <c r="Y125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z125" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB125" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC125" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD125" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE125" t="n">
         <v>21</v>
       </c>
       <c r="AF125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG125" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH125" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI125" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AJ125" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>K8X43VXH</t>
+          <t>S0Fc5i35</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -14650,109 +14710,109 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H126" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I126" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="J126" t="n">
         <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L126" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M126" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="O126" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="P126" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q126" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S126" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V126" t="n">
         <v>8.5</v>
       </c>
       <c r="W126" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X126" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y126" t="n">
         <v>21</v>
       </c>
       <c r="Z126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC126" t="n">
         <v>41</v>
       </c>
       <c r="AD126" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE126" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG126" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH126" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ126" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S0Fc5i35</t>
+          <t>WYLl7DYh</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -14772,109 +14832,109 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K127" t="n">
+        <v>13</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R127" t="n">
         <v>1.67</v>
       </c>
-      <c r="H127" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K127" t="n">
+      <c r="S127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T127" t="n">
+        <v>10</v>
+      </c>
+      <c r="U127" t="n">
         <v>15</v>
       </c>
-      <c r="L127" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M127" t="n">
-        <v>5</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O127" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S127" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T127" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U127" t="n">
-        <v>9.5</v>
-      </c>
       <c r="V127" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W127" t="n">
+        <v>26</v>
+      </c>
+      <c r="X127" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB127" t="n">
         <v>13</v>
-      </c>
-      <c r="X127" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>12</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
       </c>
       <c r="AD127" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AE127" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AF127" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG127" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AH127" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AI127" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ127" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>WYLl7DYh</t>
+          <t>KU8uG8HN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14884,7 +14944,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -14894,22 +14954,22 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I128" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -14918,16 +14978,16 @@
         <v>13</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M128" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N128" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O128" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P128" t="n">
         <v>1.33</v>
@@ -14936,10 +14996,10 @@
         <v>3.25</v>
       </c>
       <c r="R128" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S128" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T128" t="n">
         <v>10</v>
@@ -14954,16 +15014,16 @@
         <v>26</v>
       </c>
       <c r="X128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB128" t="n">
         <v>13</v>
@@ -14972,7 +15032,7 @@
         <v>41</v>
       </c>
       <c r="AD128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE128" t="n">
         <v>13</v>
@@ -14987,7 +15047,7 @@
         <v>19</v>
       </c>
       <c r="AI128" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ128" t="n">
         <v>151</v>
@@ -14996,7 +15056,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KU8uG8HN</t>
+          <t>0ShvIUnB</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -15016,109 +15076,109 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="H129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K129" t="n">
+        <v>11</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M129" t="n">
         <v>3.75</v>
       </c>
-      <c r="I129" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K129" t="n">
+      <c r="N129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>3</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T129" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>15</v>
+      </c>
+      <c r="X129" t="n">
         <v>13</v>
-      </c>
-      <c r="L129" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M129" t="n">
-        <v>4</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O129" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P129" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R129" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S129" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T129" t="n">
-        <v>10</v>
-      </c>
-      <c r="U129" t="n">
-        <v>15</v>
-      </c>
-      <c r="V129" t="n">
-        <v>10</v>
-      </c>
-      <c r="W129" t="n">
-        <v>26</v>
-      </c>
-      <c r="X129" t="n">
-        <v>19</v>
       </c>
       <c r="Y129" t="n">
         <v>23</v>
       </c>
       <c r="Z129" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA129" t="n">
         <v>7</v>
       </c>
       <c r="AB129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD129" t="n">
         <v>13</v>
       </c>
-      <c r="AC129" t="n">
+      <c r="AE129" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI129" t="n">
         <v>41</v>
       </c>
-      <c r="AD129" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ129" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0ShvIUnB</t>
+          <t>YXYEU7WG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -15128,7 +15188,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -15138,109 +15198,109 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="H130" t="n">
         <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K130" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L130" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M130" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N130" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="O130" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="P130" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q130" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S130" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T130" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U130" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W130" t="n">
+        <v>21</v>
+      </c>
+      <c r="X130" t="n">
         <v>15</v>
       </c>
-      <c r="X130" t="n">
-        <v>13</v>
-      </c>
       <c r="Y130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z130" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
       </c>
       <c r="AB130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE130" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH130" t="n">
         <v>23</v>
       </c>
-      <c r="AF130" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>34</v>
-      </c>
       <c r="AI130" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ130" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>YXYEU7WG</t>
+          <t>W8xbYkXi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -15260,40 +15320,40 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H131" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I131" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J131" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L131" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M131" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N131" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O131" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P131" t="n">
         <v>1.3</v>
@@ -15302,34 +15362,34 @@
         <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S131" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T131" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W131" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y131" t="n">
         <v>21</v>
       </c>
       <c r="Z131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA131" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB131" t="n">
         <v>13</v>
@@ -15338,22 +15398,22 @@
         <v>41</v>
       </c>
       <c r="AD131" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE131" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF131" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG131" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH131" t="n">
         <v>34</v>
       </c>
-      <c r="AH131" t="n">
-        <v>23</v>
-      </c>
       <c r="AI131" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ131" t="n">
         <v>151</v>
@@ -15362,7 +15422,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>W8xbYkXi</t>
+          <t>8bB6FXCs</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -15372,119 +15432,115 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="H132" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="I132" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K132" t="n">
-        <v>13</v>
-      </c>
+        <v>1.91</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="M132" t="n">
-        <v>4</v>
+        <v>2.47</v>
       </c>
       <c r="N132" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="O132" t="n">
-        <v>2.08</v>
+        <v>1.52</v>
       </c>
       <c r="P132" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="Q132" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="R132" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="S132" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="T132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U132" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="V132" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="W132" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="X132" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="Y132" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="Z132" t="n">
-        <v>13</v>
+        <v>7.1</v>
       </c>
       <c r="AA132" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AB132" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AC132" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AD132" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AE132" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AF132" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AG132" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="AH132" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AI132" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJ132" t="n">
-        <v>151</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>8bB6FXCs</t>
+          <t>4CPtaCS0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -15494,7 +15550,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -15504,105 +15560,105 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I133" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M133" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="N133" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O133" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="P133" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R133" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S133" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="T133" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U133" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V133" t="n">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="W133" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="X133" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Y133" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Z133" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB133" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD133" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AE133" t="n">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="AF133" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AH133" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AI133" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ133" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>4CPtaCS0</t>
+          <t>rcyY0Ycl</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -15622,216 +15678,98 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H134" t="n">
         <v>3</v>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>2.92</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.42</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M134" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="N134" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="O134" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P134" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R134" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S134" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T134" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V134" t="n">
+        <v>9</v>
+      </c>
+      <c r="W134" t="n">
+        <v>27</v>
+      </c>
+      <c r="X134" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE134" t="n">
         <v>15</v>
       </c>
-      <c r="V134" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W134" t="n">
-        <v>40</v>
-      </c>
-      <c r="X134" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y134" t="n">
+      <c r="AF134" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG134" t="n">
         <v>37</v>
       </c>
-      <c r="Z134" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA134" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG134" t="n">
+      <c r="AH134" t="n">
         <v>26</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>22</v>
       </c>
       <c r="AI134" t="n">
         <v>35</v>
       </c>
       <c r="AJ134" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>rcyY0Ycl</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>31/05/2025</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Portuguesa</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H135" t="n">
-        <v>3</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M135" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P135" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R135" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S135" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T135" t="n">
-        <v>8</v>
-      </c>
-      <c r="U135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V135" t="n">
-        <v>9</v>
-      </c>
-      <c r="W135" t="n">
-        <v>27</v>
-      </c>
-      <c r="X135" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>37</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ135" t="n">
         <v>450</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ134"/>
+  <dimension ref="A1:AJ135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,10 +671,10 @@
         <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -695,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
@@ -713,7 +713,7 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -776,10 +776,10 @@
         <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.62</v>
@@ -791,13 +791,13 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
         <v>2.63</v>
@@ -818,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -911,10 +911,10 @@
         <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -1019,7 +1019,7 @@
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.8</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.78</v>
@@ -1049,7 +1049,7 @@
         <v>4.5</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>11</v>
@@ -1136,10 +1136,10 @@
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1154,10 +1154,10 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>2.75</v>
@@ -1166,7 +1166,7 @@
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U6" t="n">
         <v>6</v>
@@ -1181,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z6" t="n">
         <v>6</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>151</v>
@@ -1286,7 +1286,7 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
         <v>8.5</v>
@@ -1307,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>126</v>
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>41</v>
@@ -1331,7 +1331,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1376,10 +1376,10 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.67</v>
@@ -1406,7 +1406,7 @@
         <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
         <v>9</v>
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
         <v>5</v>
@@ -1430,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>101</v>
@@ -1514,7 +1514,7 @@
         <v>2.03</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
         <v>3.25</v>
@@ -2052,10 +2052,10 @@
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2064,10 +2064,10 @@
         <v>2.63</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
         <v>1.53</v>
@@ -2290,28 +2290,28 @@
         <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="N19" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
         <v>1.47</v>
@@ -2320,34 +2320,34 @@
         <v>2.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="U19" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA19" t="n">
         <v>6.2</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6</v>
       </c>
       <c r="AB19" t="n">
         <v>15.5</v>
@@ -2356,16 +2356,16 @@
         <v>80</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="n">
         <v>37</v>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20">
@@ -2412,7 +2412,7 @@
         <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
         <v>3.5</v>
@@ -2424,10 +2424,10 @@
         <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
         <v>2.42</v>
@@ -2445,13 +2445,13 @@
         <v>2.02</v>
       </c>
       <c r="S20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V20" t="n">
         <v>9.25</v>
@@ -2460,10 +2460,10 @@
         <v>22</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
         <v>5.5</v>
@@ -2478,22 +2478,22 @@
         <v>100</v>
       </c>
       <c r="AD20" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>800</v>
@@ -2934,7 +2934,7 @@
         <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="U24" t="n">
         <v>23</v>
@@ -2946,7 +2946,7 @@
         <v>60</v>
       </c>
       <c r="X24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
         <v>37</v>
@@ -2958,22 +2958,22 @@
         <v>7.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
         <v>60</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF24" t="n">
         <v>8.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>15.5</v>
@@ -3410,7 +3410,7 @@
         <v>2.05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
         <v>3.25</v>
@@ -3630,10 +3630,10 @@
         <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
@@ -3642,10 +3642,10 @@
         <v>6.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M30" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="N30" t="n">
         <v>2.15</v>
@@ -3654,10 +3654,10 @@
         <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
@@ -3666,10 +3666,10 @@
         <v>1.72</v>
       </c>
       <c r="T30" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="U30" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V30" t="n">
         <v>9</v>
@@ -3678,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
         <v>37</v>
@@ -3696,16 +3696,16 @@
         <v>120</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="n">
         <v>55</v>
@@ -4420,7 +4420,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5241,43 +5241,43 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N44" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.65</v>
       </c>
       <c r="P44" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="R44" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T44" t="n">
         <v>5.3</v>
@@ -5286,10 +5286,10 @@
         <v>6.1</v>
       </c>
       <c r="V44" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X44" t="n">
         <v>14</v>
@@ -5298,10 +5298,10 @@
         <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB44" t="n">
         <v>21</v>
@@ -5310,22 +5310,22 @@
         <v>120</v>
       </c>
       <c r="AD44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG44" t="n">
         <v>175</v>
       </c>
       <c r="AH44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="n">
         <v>1000</v>
@@ -5524,13 +5524,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG46" t="n">
         <v>50</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI46" t="n">
         <v>30</v>
@@ -5958,10 +5958,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O50" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6068,10 +6068,10 @@
         <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.67</v>
@@ -6424,34 +6424,34 @@
         <v>2.9</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
         <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M54" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O54" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R54" t="n">
         <v>1.95</v>
@@ -6478,19 +6478,19 @@
         <v>41</v>
       </c>
       <c r="Z54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA54" t="n">
         <v>6</v>
       </c>
       <c r="AB54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC54" t="n">
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE54" t="n">
         <v>11</v>
@@ -6502,13 +6502,13 @@
         <v>23</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
         <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55">
@@ -6600,7 +6600,7 @@
         <v>26</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA55" t="n">
         <v>6.5</v>
@@ -6909,25 +6909,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J58" t="n">
         <v>1.08</v>
       </c>
       <c r="K58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N58" t="n">
         <v>2.35</v>
@@ -6954,7 +6954,7 @@
         <v>10</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W58" t="n">
         <v>21</v>
@@ -6969,16 +6969,16 @@
         <v>7.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
         <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE58" t="n">
         <v>15</v>
@@ -7296,10 +7296,10 @@
         <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7894,10 +7894,10 @@
         <v>3.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.57</v>
@@ -8005,13 +8005,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H67" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="I67" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8024,31 +8024,31 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U67" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V67" t="n">
         <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X67" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y67" t="n">
         <v>29</v>
       </c>
       <c r="Z67" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA67" t="n">
         <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC67" t="n">
         <v>120</v>
@@ -8057,17 +8057,17 @@
         <v>70</v>
       </c>
       <c r="AE67" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AF67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AI67" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ67" t="n">
         <v>600</v>
@@ -8111,7 +8111,7 @@
         <v>7.1</v>
       </c>
       <c r="I68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8139,7 +8139,7 @@
         <v>9.25</v>
       </c>
       <c r="Y68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z68" t="n">
         <v>21</v>
@@ -8167,7 +8167,7 @@
         <v>300</v>
       </c>
       <c r="AI68" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ68" t="inlineStr"/>
     </row>
@@ -8203,13 +8203,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8230,52 +8230,52 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>55</v>
+      </c>
+      <c r="X69" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH69" t="n">
         <v>11.75</v>
       </c>
-      <c r="W69" t="n">
-        <v>50</v>
-      </c>
-      <c r="X69" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AI69" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ69" t="n">
         <v>500</v>
@@ -8423,13 +8423,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8454,40 +8454,40 @@
         <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U71" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V71" t="n">
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD71" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF71" t="n">
         <v>9.5</v>
@@ -8499,10 +8499,10 @@
         <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72">
@@ -8537,87 +8537,87 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="H72" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I72" t="n">
-        <v>3.15</v>
+        <v>4.45</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M72" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="N72" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="O72" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S72" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q72" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T72" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="U72" t="n">
-        <v>9.75</v>
+        <v>6.9</v>
       </c>
       <c r="V72" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE72" t="n">
         <v>22</v>
       </c>
-      <c r="X72" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>15</v>
-      </c>
       <c r="AF72" t="n">
-        <v>11.75</v>
+        <v>16.5</v>
       </c>
       <c r="AG72" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AI72" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="inlineStr"/>
     </row>
@@ -9263,19 +9263,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H80" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I80" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J80" t="n">
         <v>1.02</v>
       </c>
       <c r="K80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L80" t="n">
         <v>1.14</v>
@@ -9284,10 +9284,10 @@
         <v>5.5</v>
       </c>
       <c r="N80" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O80" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="P80" t="n">
         <v>1.25</v>
@@ -9320,13 +9320,13 @@
         <v>21</v>
       </c>
       <c r="Z80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
         <v>51</v>
@@ -9338,7 +9338,7 @@
         <v>34</v>
       </c>
       <c r="AF80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG80" t="n">
         <v>67</v>
@@ -9385,46 +9385,46 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L81" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M81" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O81" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P81" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R81" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U81" t="n">
         <v>13</v>
@@ -9436,13 +9436,13 @@
         <v>23</v>
       </c>
       <c r="X81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y81" t="n">
         <v>23</v>
       </c>
       <c r="Z81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA81" t="n">
         <v>7</v>
@@ -9454,7 +9454,7 @@
         <v>41</v>
       </c>
       <c r="AD81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
@@ -9507,13 +9507,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J82" t="n">
         <v>1.03</v>
@@ -9579,7 +9579,7 @@
         <v>15</v>
       </c>
       <c r="AE82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF82" t="n">
         <v>13</v>
@@ -9588,7 +9588,7 @@
         <v>41</v>
       </c>
       <c r="AH82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI82" t="n">
         <v>29</v>
@@ -9873,13 +9873,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H85" t="n">
         <v>3.7</v>
       </c>
       <c r="I85" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J85" t="n">
         <v>1.03</v>
@@ -9912,7 +9912,7 @@
         <v>2.38</v>
       </c>
       <c r="T85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U85" t="n">
         <v>15</v>
@@ -9942,7 +9942,7 @@
         <v>34</v>
       </c>
       <c r="AD85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -9951,13 +9951,13 @@
         <v>10</v>
       </c>
       <c r="AG85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI85" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ85" t="n">
         <v>126</v>
@@ -10320,7 +10320,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>U34Xflo4</t>
+          <t>I71pZ6Op</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -10340,12 +10340,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Akhmat Grozny</t>
+          <t>Pari NN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ural</t>
+          <t>Sochi</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -10382,7 +10382,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Eog4aZXI</t>
+          <t>U34Xflo4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10392,119 +10392,59 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Akhmat Grozny</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Daejeon</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K90" t="n">
-        <v>9</v>
-      </c>
-      <c r="L90" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M90" t="n">
-        <v>3</v>
-      </c>
-      <c r="N90" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T90" t="n">
-        <v>8</v>
-      </c>
-      <c r="U90" t="n">
-        <v>13</v>
-      </c>
-      <c r="V90" t="n">
-        <v>10</v>
-      </c>
-      <c r="W90" t="n">
-        <v>26</v>
-      </c>
-      <c r="X90" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>301</v>
-      </c>
+          <t>Ural</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>tYfd1e36</t>
+          <t>Eog4aZXI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10524,88 +10464,88 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J91" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L91" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M91" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O91" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="P91" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R91" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U91" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V91" t="n">
         <v>10</v>
       </c>
       <c r="W91" t="n">
+        <v>26</v>
+      </c>
+      <c r="X91" t="n">
         <v>23</v>
       </c>
-      <c r="X91" t="n">
-        <v>21</v>
-      </c>
       <c r="Y91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
       </c>
       <c r="AB91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC91" t="n">
         <v>51</v>
       </c>
       <c r="AD91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF91" t="n">
         <v>11</v>
@@ -10620,13 +10560,13 @@
         <v>34</v>
       </c>
       <c r="AJ91" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p61m3HYg</t>
+          <t>tYfd1e36</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10646,109 +10586,109 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Jeju SK</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="J92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K92" t="n">
+        <v>10</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="n">
         <v>8.5</v>
       </c>
-      <c r="L92" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P92" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R92" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T92" t="n">
+      <c r="U92" t="n">
+        <v>12</v>
+      </c>
+      <c r="V92" t="n">
+        <v>10</v>
+      </c>
+      <c r="W92" t="n">
+        <v>23</v>
+      </c>
+      <c r="X92" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA92" t="n">
         <v>6</v>
       </c>
-      <c r="U92" t="n">
-        <v>7</v>
-      </c>
-      <c r="V92" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W92" t="n">
+      <c r="AB92" t="n">
         <v>13</v>
       </c>
-      <c r="X92" t="n">
+      <c r="AC92" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE92" t="n">
         <v>15</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="AF92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI92" t="n">
         <v>34</v>
       </c>
-      <c r="Z92" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ92" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0SQRGOF6</t>
+          <t>p61m3HYg</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10758,119 +10698,119 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Hwaseong</t>
+          <t>Jeju SK</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I93" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J93" t="n">
         <v>1.05</v>
       </c>
       <c r="K93" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L93" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M93" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O93" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P93" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R93" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T93" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="U93" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
       </c>
       <c r="Y93" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z93" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA93" t="n">
         <v>7</v>
       </c>
       <c r="AB93" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC93" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG93" t="n">
         <v>51</v>
       </c>
-      <c r="AD93" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG93" t="n">
+      <c r="AH93" t="n">
         <v>41</v>
       </c>
-      <c r="AH93" t="n">
-        <v>34</v>
-      </c>
       <c r="AI93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ93" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nqPZE2pJ</t>
+          <t>0SQRGOF6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -10890,76 +10830,76 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Hwaseong</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H94" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L94" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M94" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N94" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="O94" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="P94" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R94" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S94" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>15</v>
+      </c>
+      <c r="X94" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z94" t="n">
         <v>11</v>
       </c>
-      <c r="V94" t="n">
-        <v>9</v>
-      </c>
-      <c r="W94" t="n">
-        <v>21</v>
-      </c>
-      <c r="X94" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>10</v>
-      </c>
       <c r="AA94" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
         <v>15</v>
@@ -10968,31 +10908,31 @@
         <v>51</v>
       </c>
       <c r="AD94" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE94" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF94" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG94" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH94" t="n">
         <v>34</v>
       </c>
-      <c r="AH94" t="n">
-        <v>26</v>
-      </c>
       <c r="AI94" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bNhhXq0m</t>
+          <t>nqPZE2pJ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -11002,7 +10942,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -11012,22 +10952,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I95" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2.2</v>
       </c>
       <c r="J95" t="n">
         <v>1.07</v>
@@ -11042,16 +10982,16 @@
         <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O95" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P95" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R95" t="n">
         <v>1.83</v>
@@ -11060,28 +11000,28 @@
         <v>1.83</v>
       </c>
       <c r="T95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>10</v>
+      </c>
+      <c r="V95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>21</v>
+      </c>
+      <c r="X95" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z95" t="n">
         <v>9</v>
       </c>
-      <c r="U95" t="n">
-        <v>15</v>
-      </c>
-      <c r="V95" t="n">
-        <v>12</v>
-      </c>
-      <c r="W95" t="n">
-        <v>34</v>
-      </c>
-      <c r="X95" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA95" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB95" t="n">
         <v>15</v>
@@ -11090,31 +11030,31 @@
         <v>51</v>
       </c>
       <c r="AD95" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF95" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AG95" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AH95" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ95" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2i7Mx6xQ</t>
+          <t>bNhhXq0m</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -11134,76 +11074,76 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Ansan Greeners</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="J96" t="n">
         <v>1.05</v>
       </c>
       <c r="K96" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L96" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M96" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N96" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O96" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="P96" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R96" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S96" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T96" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U96" t="n">
+        <v>15</v>
+      </c>
+      <c r="V96" t="n">
         <v>12</v>
       </c>
-      <c r="V96" t="n">
-        <v>10</v>
-      </c>
       <c r="W96" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X96" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y96" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z96" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB96" t="n">
         <v>15</v>
@@ -11212,31 +11152,31 @@
         <v>51</v>
       </c>
       <c r="AD96" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE96" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AH96" t="n">
         <v>21</v>
       </c>
       <c r="AI96" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ96" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hGECmHVp</t>
+          <t>2i7Mx6xQ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11246,65 +11186,65 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I97" t="n">
         <v>2.63</v>
       </c>
-      <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J97" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K97" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L97" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M97" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N97" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O97" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="P97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R97" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S97" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T97" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U97" t="n">
         <v>12</v>
@@ -11313,19 +11253,19 @@
         <v>10</v>
       </c>
       <c r="W97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z97" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA97" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB97" t="n">
         <v>15</v>
@@ -11334,31 +11274,31 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE97" t="n">
         <v>13</v>
       </c>
       <c r="AF97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG97" t="n">
         <v>29</v>
       </c>
       <c r="AH97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ97" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ELa79bh4</t>
+          <t>hGECmHVp</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11368,7 +11308,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11378,22 +11318,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="J98" t="n">
         <v>1.08</v>
@@ -11402,83 +11342,85 @@
         <v>8</v>
       </c>
       <c r="L98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P98" t="n">
         <v>1.44</v>
       </c>
-      <c r="M98" t="n">
+      <c r="Q98" t="n">
         <v>2.63</v>
       </c>
-      <c r="N98" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P98" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R98" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S98" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U98" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V98" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W98" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="X98" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y98" t="n">
         <v>34</v>
       </c>
       <c r="Z98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA98" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB98" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE98" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF98" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG98" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AH98" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI98" t="n">
         <v>34</v>
       </c>
-      <c r="AI98" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ98" t="inlineStr"/>
+      <c r="AJ98" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rPoRF6f4</t>
+          <t>ELa79bh4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11488,59 +11430,117 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cultural Leonesa</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K99" t="n">
+        <v>8</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T99" t="n">
+        <v>6</v>
+      </c>
+      <c r="U99" t="n">
+        <v>9</v>
+      </c>
+      <c r="V99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>19</v>
+      </c>
+      <c r="X99" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>41</v>
+      </c>
       <c r="AJ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ABofshFD</t>
+          <t>rPoRF6f4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -11560,109 +11560,49 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Gimnastic</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Murcia</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K100" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L100" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M100" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N100" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P100" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S100" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T100" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="U100" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="V100" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W100" t="n">
-        <v>22</v>
-      </c>
-      <c r="X100" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>37</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>800</v>
-      </c>
+          <t>Cultural Leonesa</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>pQy5aZUs</t>
+          <t>ABofshFD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11672,7 +11612,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11682,109 +11622,109 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Gimnastic</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ponferradina</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I101" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="J101" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K101" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L101" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M101" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="N101" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="O101" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P101" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R101" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T101" t="n">
-        <v>8.75</v>
+        <v>6.7</v>
       </c>
       <c r="U101" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V101" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>22</v>
+      </c>
+      <c r="X101" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE101" t="n">
         <v>14.5</v>
       </c>
-      <c r="V101" t="n">
-        <v>10</v>
-      </c>
-      <c r="W101" t="n">
-        <v>35</v>
-      </c>
-      <c r="X101" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF101" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG101" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH101" t="n">
         <v>29</v>
       </c>
-      <c r="AH101" t="n">
-        <v>22</v>
-      </c>
       <c r="AI101" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AJ101" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GWz1060E</t>
+          <t>pQy5aZUs</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11794,119 +11734,119 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Oster</t>
+          <t>Ponferradina</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="J102" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K102" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>10</v>
+      </c>
+      <c r="W102" t="n">
+        <v>35</v>
+      </c>
+      <c r="X102" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF102" t="n">
         <v>9.5</v>
       </c>
-      <c r="L102" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R102" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S102" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T102" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U102" t="n">
-        <v>10</v>
-      </c>
-      <c r="V102" t="n">
-        <v>9</v>
-      </c>
-      <c r="W102" t="n">
-        <v>19</v>
-      </c>
-      <c r="X102" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y102" t="n">
+      <c r="AG102" t="n">
         <v>29</v>
       </c>
-      <c r="Z102" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>41</v>
-      </c>
       <c r="AH102" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI102" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ102" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pAXZuHc2</t>
+          <t>GWz1060E</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11926,109 +11866,109 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Oster</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="H103" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K103" t="n">
+        <v>11</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="n">
+        <v>8</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10</v>
+      </c>
+      <c r="V103" t="n">
+        <v>9</v>
+      </c>
+      <c r="W103" t="n">
+        <v>19</v>
+      </c>
+      <c r="X103" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB103" t="n">
         <v>15</v>
       </c>
-      <c r="L103" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M103" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N103" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O103" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S103" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T103" t="n">
-        <v>10</v>
-      </c>
-      <c r="U103" t="n">
-        <v>13</v>
-      </c>
-      <c r="V103" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W103" t="n">
-        <v>23</v>
-      </c>
-      <c r="X103" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>12</v>
-      </c>
       <c r="AC103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD103" t="n">
         <v>11</v>
       </c>
       <c r="AE103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF103" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG103" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AH103" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI103" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ103" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fqsato9r</t>
+          <t>pAXZuHc2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -12048,40 +11988,40 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="H104" t="n">
         <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K104" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N104" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O104" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -12090,58 +12030,58 @@
         <v>3.25</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W104" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y104" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA104" t="n">
         <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE104" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG104" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ104" t="n">
         <v>151</v>
@@ -12150,7 +12090,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>vPb89gio</t>
+          <t>fqsato9r</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -12160,32 +12100,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H105" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I105" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
@@ -12212,28 +12152,28 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S105" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T105" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U105" t="n">
+        <v>15</v>
+      </c>
+      <c r="V105" t="n">
+        <v>11</v>
+      </c>
+      <c r="W105" t="n">
+        <v>29</v>
+      </c>
+      <c r="X105" t="n">
         <v>21</v>
       </c>
-      <c r="V105" t="n">
-        <v>13</v>
-      </c>
-      <c r="W105" t="n">
-        <v>41</v>
-      </c>
-      <c r="X105" t="n">
+      <c r="Y105" t="n">
         <v>29</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>34</v>
       </c>
       <c r="Z105" t="n">
         <v>12</v>
@@ -12242,37 +12182,37 @@
         <v>7</v>
       </c>
       <c r="AB105" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC105" t="n">
         <v>41</v>
       </c>
       <c r="AD105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE105" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF105" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF105" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG105" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI105" t="n">
         <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6VjfXdqh</t>
+          <t>vPb89gio</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12292,109 +12232,109 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="H106" t="n">
-        <v>5.75</v>
+        <v>3.7</v>
       </c>
       <c r="I106" t="n">
-        <v>11</v>
+        <v>1.83</v>
       </c>
       <c r="J106" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K106" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L106" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="M106" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="O106" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q106" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S106" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T106" t="n">
+        <v>13</v>
+      </c>
+      <c r="U106" t="n">
+        <v>21</v>
+      </c>
+      <c r="V106" t="n">
+        <v>13</v>
+      </c>
+      <c r="W106" t="n">
+        <v>41</v>
+      </c>
+      <c r="X106" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF106" t="n">
         <v>8.5</v>
       </c>
-      <c r="U106" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V106" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W106" t="n">
-        <v>8</v>
-      </c>
-      <c r="X106" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z106" t="n">
+      <c r="AG106" t="n">
         <v>15</v>
       </c>
-      <c r="AA106" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>151</v>
-      </c>
       <c r="AH106" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="AI106" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AJ106" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>KhcATErH</t>
+          <t>6VjfXdqh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12404,7 +12344,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12414,109 +12354,109 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Vasteras SK</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="H107" t="n">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J107" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K107" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L107" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="M107" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="N107" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O107" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P107" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q107" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U107" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="V107" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W107" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X107" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y107" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB107" t="n">
         <v>21</v>
       </c>
-      <c r="Z107" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>12</v>
-      </c>
       <c r="AC107" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD107" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE107" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AF107" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AG107" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AH107" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ107" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>fiNyFFTN</t>
+          <t>KhcATErH</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12536,22 +12476,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
         <v>1.04</v>
@@ -12560,22 +12500,22 @@
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R108" t="n">
         <v>1.62</v>
@@ -12584,22 +12524,22 @@
         <v>2.2</v>
       </c>
       <c r="T108" t="n">
+        <v>9</v>
+      </c>
+      <c r="U108" t="n">
         <v>10</v>
       </c>
-      <c r="U108" t="n">
+      <c r="V108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W108" t="n">
+        <v>17</v>
+      </c>
+      <c r="X108" t="n">
         <v>13</v>
       </c>
-      <c r="V108" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W108" t="n">
-        <v>26</v>
-      </c>
-      <c r="X108" t="n">
-        <v>19</v>
-      </c>
       <c r="Y108" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z108" t="n">
         <v>13</v>
@@ -12608,28 +12548,28 @@
         <v>7</v>
       </c>
       <c r="AB108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC108" t="n">
         <v>41</v>
       </c>
       <c r="AD108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE108" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF108" t="n">
         <v>13</v>
       </c>
-      <c r="AF108" t="n">
-        <v>10</v>
-      </c>
       <c r="AG108" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AH108" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AI108" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ108" t="n">
         <v>151</v>
@@ -12638,7 +12578,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>fRZ1gpuA</t>
+          <t>fiNyFFTN</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12653,114 +12593,114 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.48</v>
+        <v>2.45</v>
       </c>
       <c r="H109" t="n">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="I109" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="J109" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K109" t="n">
+        <v>12</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>13</v>
+      </c>
+      <c r="V109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W109" t="n">
         <v>23</v>
       </c>
-      <c r="L109" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M109" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O109" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R109" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S109" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T109" t="n">
+      <c r="X109" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z109" t="n">
         <v>12</v>
       </c>
-      <c r="U109" t="n">
-        <v>10</v>
-      </c>
-      <c r="V109" t="n">
-        <v>9</v>
-      </c>
-      <c r="W109" t="n">
-        <v>12</v>
-      </c>
-      <c r="X109" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>23</v>
-      </c>
       <c r="AA109" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC109" t="n">
         <v>41</v>
       </c>
       <c r="AD109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH109" t="n">
         <v>21</v>
       </c>
-      <c r="AE109" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>34</v>
-      </c>
       <c r="AI109" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ109" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8Yg7X2Ij</t>
+          <t>fRZ1gpuA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12780,109 +12720,109 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I110" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J110" t="n">
         <v>1.01</v>
       </c>
       <c r="K110" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L110" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="M110" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T110" t="n">
+        <v>12</v>
+      </c>
+      <c r="U110" t="n">
+        <v>10</v>
+      </c>
+      <c r="V110" t="n">
         <v>9</v>
       </c>
-      <c r="N110" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="O110" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="P110" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>5</v>
-      </c>
-      <c r="R110" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S110" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T110" t="n">
-        <v>15</v>
-      </c>
-      <c r="U110" t="n">
+      <c r="W110" t="n">
         <v>12</v>
-      </c>
-      <c r="V110" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W110" t="n">
-        <v>13</v>
       </c>
       <c r="X110" t="n">
         <v>11</v>
       </c>
       <c r="Y110" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z110" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA110" t="n">
         <v>11</v>
       </c>
       <c r="AB110" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC110" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD110" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG110" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ110" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2iwAiO9M</t>
+          <t>8Yg7X2Ij</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12892,7 +12832,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12902,22 +12842,22 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.25</v>
+        <v>1.44</v>
       </c>
       <c r="H111" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="J111" t="n">
         <v>1.01</v>
@@ -12926,22 +12866,22 @@
         <v>26</v>
       </c>
       <c r="L111" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M111" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N111" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="O111" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P111" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q111" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R111" t="n">
         <v>1.4</v>
@@ -12950,22 +12890,22 @@
         <v>2.75</v>
       </c>
       <c r="T111" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="U111" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="V111" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="W111" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="X111" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Y111" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z111" t="n">
         <v>29</v>
@@ -12980,22 +12920,22 @@
         <v>29</v>
       </c>
       <c r="AD111" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AE111" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AF111" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AG111" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AH111" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI111" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ111" t="n">
         <v>81</v>
@@ -13004,7 +12944,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>K8LJt7e4</t>
+          <t>2iwAiO9M</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -13024,109 +12964,109 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="H112" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="I112" t="n">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="J112" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K112" t="n">
+        <v>29</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M112" t="n">
+        <v>9</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>34</v>
+      </c>
+      <c r="U112" t="n">
+        <v>41</v>
+      </c>
+      <c r="V112" t="n">
+        <v>21</v>
+      </c>
+      <c r="W112" t="n">
+        <v>81</v>
+      </c>
+      <c r="X112" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB112" t="n">
         <v>15</v>
       </c>
-      <c r="L112" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N112" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O112" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P112" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R112" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S112" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T112" t="n">
-        <v>9</v>
-      </c>
-      <c r="U112" t="n">
+      <c r="AC112" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH112" t="n">
         <v>10</v>
       </c>
-      <c r="V112" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W112" t="n">
+      <c r="AI112" t="n">
         <v>17</v>
       </c>
-      <c r="X112" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ112" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ryIFDYFG</t>
+          <t>K8LJt7e4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -13136,119 +13076,119 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="H113" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I113" t="n">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="J113" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K113" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L113" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="M113" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="N113" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="O113" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="P113" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R113" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S113" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="T113" t="n">
+        <v>9</v>
+      </c>
+      <c r="U113" t="n">
+        <v>10</v>
+      </c>
+      <c r="V113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>17</v>
+      </c>
+      <c r="X113" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA113" t="n">
         <v>7.5</v>
       </c>
-      <c r="U113" t="n">
+      <c r="AB113" t="n">
         <v>13</v>
       </c>
-      <c r="V113" t="n">
-        <v>11</v>
-      </c>
-      <c r="W113" t="n">
+      <c r="AC113" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH113" t="n">
         <v>29</v>
       </c>
-      <c r="X113" t="n">
+      <c r="AI113" t="n">
         <v>29</v>
       </c>
-      <c r="Y113" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ113" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>G0bY0eWA</t>
+          <t>ryIFDYFG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -13258,7 +13198,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -13268,109 +13208,109 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H114" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I114" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J114" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K114" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L114" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M114" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O114" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P114" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R114" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S114" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T114" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U114" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W114" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X114" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y114" t="n">
         <v>41</v>
       </c>
       <c r="Z114" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
       </c>
       <c r="AB114" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF114" t="n">
         <v>10</v>
       </c>
-      <c r="AF114" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG114" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH114" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ114" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>8bwDgDOp</t>
+          <t>G0bY0eWA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -13380,7 +13320,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -13390,107 +13330,109 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L115" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M115" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N115" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O115" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P115" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R115" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S115" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="T115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U115" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W115" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y115" t="n">
         <v>41</v>
       </c>
       <c r="Z115" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA115" t="n">
         <v>6.5</v>
       </c>
       <c r="AB115" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG115" t="n">
         <v>21</v>
       </c>
-      <c r="AC115" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG115" t="n">
+      <c r="AH115" t="n">
         <v>19</v>
       </c>
-      <c r="AH115" t="n">
-        <v>21</v>
-      </c>
       <c r="AI115" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ115" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>hYgGQSuA</t>
+          <t>8bwDgDOp</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -13500,117 +13442,117 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.93</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I116" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K116" t="n">
-        <v>4.35</v>
+        <v>6.5</v>
       </c>
       <c r="L116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
         <v>1.62</v>
       </c>
-      <c r="M116" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="O116" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P116" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R116" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S116" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T116" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="U116" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="V116" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="W116" t="n">
-        <v>16.5</v>
+        <v>41</v>
       </c>
       <c r="X116" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Y116" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z116" t="n">
-        <v>4.65</v>
+        <v>6.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC116" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AD116" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE116" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AG116" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AH116" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AI116" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AJ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>QohOO6AM</t>
+          <t>hYgGQSuA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13620,7 +13562,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -13630,103 +13572,107 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Albion</t>
+          <t>Uruguay Montevideo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.47</v>
+        <v>1.93</v>
       </c>
       <c r="H117" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4.35</v>
+      </c>
       <c r="L117" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="M117" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="N117" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R117" t="n">
         <v>2.42</v>
       </c>
-      <c r="O117" t="n">
+      <c r="S117" t="n">
         <v>1.44</v>
       </c>
-      <c r="P117" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R117" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S117" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T117" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="U117" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="V117" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W117" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X117" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB117" t="n">
         <v>27</v>
       </c>
-      <c r="X117" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC117" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AD117" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AE117" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AF117" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AG117" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AH117" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AI117" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>pWYfJpYq</t>
+          <t>QohOO6AM</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13746,22 +13692,22 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Albion</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.45</v>
+        <v>2.47</v>
       </c>
       <c r="H118" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I118" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -13769,7 +13715,7 @@
         <v>1.5</v>
       </c>
       <c r="M118" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N118" t="n">
         <v>2.42</v>
@@ -13784,65 +13730,65 @@
         <v>2.18</v>
       </c>
       <c r="R118" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S118" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T118" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="U118" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="V118" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="W118" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="X118" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG118" t="n">
         <v>40</v>
       </c>
-      <c r="Y118" t="n">
+      <c r="AH118" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI118" t="n">
         <v>55</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>45</v>
       </c>
       <c r="AJ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>hdx3HO2d</t>
+          <t>pWYfJpYq</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13852,7 +13798,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -13862,103 +13808,103 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Cerrito</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Central Esp.</t>
+          <t>Rentistas</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.27</v>
+        <v>3.45</v>
       </c>
       <c r="H119" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I119" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M119" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="N119" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="O119" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P119" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R119" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="S119" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="T119" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="U119" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="V119" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="W119" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="X119" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y119" t="n">
         <v>55</v>
       </c>
       <c r="Z119" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB119" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AD119" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE119" t="n">
-        <v>14.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF119" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AG119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI119" t="n">
         <v>45</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>70</v>
       </c>
       <c r="AJ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>pvHU1IdD</t>
+          <t>hdx3HO2d</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13968,119 +13914,113 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>St. Louis City</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Central Esp.</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H120" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="I120" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K120" t="n">
-        <v>19</v>
-      </c>
+        <v>3.15</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="M120" t="n">
-        <v>6</v>
+        <v>2.27</v>
       </c>
       <c r="N120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O120" t="n">
         <v>1.44</v>
       </c>
-      <c r="O120" t="n">
-        <v>2.7</v>
-      </c>
       <c r="P120" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R120" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="S120" t="n">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="T120" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="U120" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="V120" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W120" t="n">
         <v>21</v>
       </c>
       <c r="X120" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y120" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Z120" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="AA120" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="AB120" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC120" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AD120" t="n">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="AE120" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AF120" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG120" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH120" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AI120" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>81</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AJ120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bLNt9Z3t</t>
+          <t>pvHU1IdD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -14090,7 +14030,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -14100,109 +14040,109 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>St. Louis City</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H121" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J121" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K121" t="n">
+        <v>21</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M121" t="n">
+        <v>6</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>4</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T121" t="n">
         <v>13</v>
       </c>
-      <c r="L121" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M121" t="n">
-        <v>4</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P121" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T121" t="n">
+      <c r="U121" t="n">
+        <v>13</v>
+      </c>
+      <c r="V121" t="n">
+        <v>9</v>
+      </c>
+      <c r="W121" t="n">
+        <v>21</v>
+      </c>
+      <c r="X121" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA121" t="n">
         <v>8</v>
       </c>
-      <c r="U121" t="n">
-        <v>9</v>
-      </c>
-      <c r="V121" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W121" t="n">
-        <v>15</v>
-      </c>
-      <c r="X121" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y121" t="n">
+      <c r="AB121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI121" t="n">
         <v>23</v>
       </c>
-      <c r="Z121" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ121" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>tOLD192U</t>
+          <t>bLNt9Z3t</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -14212,7 +14152,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -14222,22 +14162,22 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
@@ -14252,10 +14192,10 @@
         <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O122" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P122" t="n">
         <v>1.33</v>
@@ -14264,25 +14204,25 @@
         <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S122" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T122" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U122" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="V122" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W122" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X122" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y122" t="n">
         <v>23</v>
@@ -14300,22 +14240,22 @@
         <v>41</v>
       </c>
       <c r="AD122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE122" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AF122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG122" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH122" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI122" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ122" t="n">
         <v>151</v>
@@ -14324,7 +14264,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SEfWJjIb</t>
+          <t>tOLD192U</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -14344,100 +14284,100 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="H123" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I123" t="n">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L123" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N123" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="O123" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="P123" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q123" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R123" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T123" t="n">
         <v>9</v>
       </c>
       <c r="U123" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W123" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X123" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AB123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC123" t="n">
         <v>41</v>
       </c>
       <c r="AD123" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE123" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AF123" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AG123" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AH123" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AI123" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ123" t="n">
         <v>151</v>
@@ -14446,7 +14386,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Wn1NLCmn</t>
+          <t>SEfWJjIb</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -14466,109 +14406,109 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I124" t="n">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="J124" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K124" t="n">
+        <v>15</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T124" t="n">
+        <v>9</v>
+      </c>
+      <c r="U124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>11</v>
+      </c>
+      <c r="X124" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y124" t="n">
         <v>21</v>
       </c>
-      <c r="L124" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M124" t="n">
-        <v>6</v>
-      </c>
-      <c r="N124" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P124" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>4</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S124" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T124" t="n">
-        <v>13</v>
-      </c>
-      <c r="U124" t="n">
+      <c r="Z124" t="n">
         <v>15</v>
       </c>
-      <c r="V124" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W124" t="n">
-        <v>21</v>
-      </c>
-      <c r="X124" t="n">
+      <c r="AA124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB124" t="n">
         <v>15</v>
       </c>
-      <c r="Y124" t="n">
+      <c r="AC124" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD124" t="n">
         <v>19</v>
       </c>
-      <c r="Z124" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD124" t="n">
+      <c r="AE124" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF124" t="n">
         <v>17</v>
       </c>
-      <c r="AE124" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>12</v>
-      </c>
       <c r="AG124" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AH124" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AI124" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ124" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>K8X43VXH</t>
+          <t>Wn1NLCmn</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -14588,109 +14528,109 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H125" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K125" t="n">
+        <v>21</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M125" t="n">
+        <v>6</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>4</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T125" t="n">
+        <v>13</v>
+      </c>
+      <c r="U125" t="n">
         <v>15</v>
       </c>
-      <c r="L125" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M125" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O125" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P125" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R125" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S125" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T125" t="n">
-        <v>9</v>
-      </c>
-      <c r="U125" t="n">
-        <v>10</v>
-      </c>
       <c r="V125" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W125" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X125" t="n">
         <v>15</v>
       </c>
       <c r="Y125" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z125" t="n">
         <v>21</v>
       </c>
-      <c r="Z125" t="n">
-        <v>13</v>
-      </c>
       <c r="AA125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC125" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD125" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE125" t="n">
         <v>21</v>
       </c>
       <c r="AF125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG125" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH125" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI125" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AJ125" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S0Fc5i35</t>
+          <t>K8X43VXH</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -14710,109 +14650,109 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="H126" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I126" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="J126" t="n">
         <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L126" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M126" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N126" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O126" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="P126" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q126" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T126" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V126" t="n">
         <v>8.5</v>
       </c>
       <c r="W126" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X126" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y126" t="n">
         <v>21</v>
       </c>
       <c r="Z126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC126" t="n">
         <v>41</v>
       </c>
       <c r="AD126" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE126" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH126" t="n">
         <v>29</v>
       </c>
-      <c r="AF126" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>34</v>
-      </c>
       <c r="AI126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ126" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>WYLl7DYh</t>
+          <t>S0Fc5i35</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -14832,109 +14772,109 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="H127" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I127" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="J127" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K127" t="n">
+        <v>17</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M127" t="n">
+        <v>5</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W127" t="n">
         <v>13</v>
       </c>
-      <c r="L127" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M127" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O127" t="n">
-        <v>2</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S127" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T127" t="n">
-        <v>10</v>
-      </c>
-      <c r="U127" t="n">
+      <c r="X127" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z127" t="n">
         <v>15</v>
       </c>
-      <c r="V127" t="n">
-        <v>10</v>
-      </c>
-      <c r="W127" t="n">
-        <v>26</v>
-      </c>
-      <c r="X127" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z127" t="n">
+      <c r="AA127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB127" t="n">
         <v>12</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>13</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
       </c>
       <c r="AD127" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AE127" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AF127" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG127" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AH127" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AI127" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ127" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KU8uG8HN</t>
+          <t>WYLl7DYh</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14944,7 +14884,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -14954,22 +14894,22 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G128" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I128" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H128" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2.55</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -14978,31 +14918,31 @@
         <v>13</v>
       </c>
       <c r="L128" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M128" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N128" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O128" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P128" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q128" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R128" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S128" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
@@ -15023,19 +14963,19 @@
         <v>13</v>
       </c>
       <c r="AA128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB128" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC128" t="n">
         <v>41</v>
       </c>
       <c r="AD128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF128" t="n">
         <v>10</v>
@@ -15050,13 +14990,13 @@
         <v>23</v>
       </c>
       <c r="AJ128" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0ShvIUnB</t>
+          <t>KU8uG8HN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -15076,109 +15016,109 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sporting Kansas City</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="H129" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="J129" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K129" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L129" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M129" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O129" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S129" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="T129" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U129" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="V129" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W129" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X129" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y129" t="n">
         <v>23</v>
       </c>
       <c r="Z129" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
         <v>7</v>
       </c>
       <c r="AB129" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE129" t="n">
         <v>15</v>
       </c>
-      <c r="AC129" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>23</v>
-      </c>
       <c r="AF129" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG129" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AH129" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AI129" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ129" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>YXYEU7WG</t>
+          <t>0ShvIUnB</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -15188,7 +15128,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -15198,109 +15138,109 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Sporting Kansas City</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H130" t="n">
         <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="J130" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K130" t="n">
+        <v>11</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W130" t="n">
         <v>15</v>
       </c>
-      <c r="L130" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M130" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O130" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P130" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S130" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T130" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U130" t="n">
-        <v>12</v>
-      </c>
-      <c r="V130" t="n">
-        <v>9</v>
-      </c>
-      <c r="W130" t="n">
-        <v>21</v>
-      </c>
       <c r="X130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z130" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
       </c>
       <c r="AB130" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD130" t="n">
         <v>13</v>
       </c>
-      <c r="AC130" t="n">
+      <c r="AE130" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI130" t="n">
         <v>41</v>
       </c>
-      <c r="AD130" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ130" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>W8xbYkXi</t>
+          <t>YXYEU7WG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -15320,40 +15260,40 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I131" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L131" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M131" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N131" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O131" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P131" t="n">
         <v>1.3</v>
@@ -15362,34 +15302,34 @@
         <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S131" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T131" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U131" t="n">
+        <v>11</v>
+      </c>
+      <c r="V131" t="n">
         <v>9</v>
       </c>
-      <c r="V131" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W131" t="n">
+        <v>19</v>
+      </c>
+      <c r="X131" t="n">
         <v>15</v>
-      </c>
-      <c r="X131" t="n">
-        <v>13</v>
       </c>
       <c r="Y131" t="n">
         <v>21</v>
       </c>
       <c r="Z131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA131" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB131" t="n">
         <v>13</v>
@@ -15398,22 +15338,22 @@
         <v>41</v>
       </c>
       <c r="AD131" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE131" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH131" t="n">
         <v>23</v>
       </c>
-      <c r="AF131" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>34</v>
-      </c>
       <c r="AI131" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ131" t="n">
         <v>151</v>
@@ -15422,7 +15362,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>8bB6FXCs</t>
+          <t>W8xbYkXi</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -15432,115 +15372,119 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.95</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="I132" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K132" t="n">
+        <v>13</v>
+      </c>
       <c r="L132" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M132" t="n">
-        <v>2.47</v>
+        <v>4</v>
       </c>
       <c r="N132" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O132" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="P132" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="R132" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="S132" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="T132" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U132" t="n">
-        <v>20</v>
+        <v>8.5</v>
       </c>
       <c r="V132" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="W132" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="X132" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Y132" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="Z132" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC132" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AD132" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="AE132" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AF132" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AG132" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AH132" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AI132" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AJ132" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4CPtaCS0</t>
+          <t>8bB6FXCs</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -15550,7 +15494,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -15560,105 +15504,105 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Anzoategui FC</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>3.95</v>
       </c>
       <c r="H133" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I133" t="n">
-        <v>2.42</v>
+        <v>1.91</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M133" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="N133" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P133" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R133" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S133" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="T133" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U133" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V133" t="n">
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="W133" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="X133" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="Y133" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI133" t="n">
         <v>37</v>
       </c>
-      <c r="Z133" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ133" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rcyY0Ycl</t>
+          <t>4CPtaCS0</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -15678,98 +15622,216 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Anzoategui FC</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I134" t="n">
         <v>2.42</v>
-      </c>
-      <c r="H134" t="n">
-        <v>3</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.92</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M134" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="N134" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="O134" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P134" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R134" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S134" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="T134" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U134" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="V134" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="W134" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="X134" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y134" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Z134" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA134" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB134" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD134" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE134" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AF134" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AH134" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI134" t="n">
         <v>35</v>
       </c>
       <c r="AJ134" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>rcyY0Ycl</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>31/05/2025</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Portuguesa</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T135" t="n">
+        <v>8</v>
+      </c>
+      <c r="U135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V135" t="n">
+        <v>9</v>
+      </c>
+      <c r="W135" t="n">
+        <v>27</v>
+      </c>
+      <c r="X135" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ135" t="n">
         <v>450</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -896,10 +896,10 @@
         <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.73</v>
@@ -1918,36 +1918,88 @@
           <t>Zeljeznicar</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1980,36 +2032,92 @@
           <t>Sloga Doboj</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.2</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2287,79 +2395,79 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
         <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="P19" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T19" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="U19" t="n">
         <v>9.25</v>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
         <v>12.5</v>
@@ -2368,13 +2476,13 @@
         <v>55</v>
       </c>
       <c r="AH19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20">
@@ -2409,91 +2517,91 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.22</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.42</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R20" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA20" t="n">
         <v>5.8</v>
       </c>
-      <c r="U20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W20" t="n">
-        <v>22</v>
-      </c>
-      <c r="X20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AB20" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG20" t="n">
         <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="n">
         <v>800</v>
@@ -2651,94 +2759,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="U22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ22" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -2773,19 +2881,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>1.65</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -2800,10 +2908,10 @@
         <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
         <v>2.38</v>
@@ -2815,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="U23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W23" t="n">
         <v>67</v>
@@ -2839,7 +2947,7 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
         <v>5</v>
@@ -2851,7 +2959,7 @@
         <v>9.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>17</v>
@@ -2895,13 +3003,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
@@ -2910,16 +3018,16 @@
         <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P24" t="n">
         <v>1.38</v>
@@ -2928,22 +3036,22 @@
         <v>2.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
       </c>
       <c r="W24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X24" t="n">
         <v>32</v>
@@ -2958,31 +3066,31 @@
         <v>7.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD24" t="n">
         <v>7.9</v>
       </c>
       <c r="AE24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
@@ -3020,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>2.27</v>
@@ -3029,7 +3137,7 @@
         <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.3</v>
@@ -3044,13 +3152,13 @@
         <v>1.83</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q25" t="n">
         <v>2.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="n">
         <v>2.02</v>
@@ -3062,7 +3170,7 @@
         <v>16.5</v>
       </c>
       <c r="V25" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W25" t="n">
         <v>40</v>
@@ -3074,22 +3182,22 @@
         <v>37</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB25" t="n">
         <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>9.5</v>
@@ -3101,10 +3209,10 @@
         <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3139,19 +3247,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.6</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.3</v>
@@ -3172,25 +3280,25 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W26" t="n">
+        <v>21</v>
+      </c>
+      <c r="X26" t="n">
         <v>19</v>
-      </c>
-      <c r="X26" t="n">
-        <v>17</v>
       </c>
       <c r="Y26" t="n">
         <v>29</v>
@@ -3199,34 +3307,34 @@
         <v>9.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -3871,10 +3979,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>4.5</v>
@@ -3882,75 +3990,75 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="N32" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T32" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="U32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V32" t="n">
         <v>8.25</v>
       </c>
-      <c r="V32" t="n">
-        <v>8</v>
-      </c>
       <c r="W32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF32" t="n">
         <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -3988,35 +4096,35 @@
         <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="I33" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T33" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="U33" t="n">
         <v>65</v>
@@ -4031,37 +4139,37 @@
         <v>120</v>
       </c>
       <c r="Y33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z33" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC33" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD33" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AF33" t="n">
         <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="inlineStr"/>
     </row>
@@ -5363,13 +5471,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="H45" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5421,7 +5529,7 @@
         <v>8.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH45" t="n">
         <v>8.25</v>
@@ -5533,7 +5641,7 @@
         <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ46" t="n">
         <v>250</v>
@@ -5583,7 +5691,7 @@
         <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
         <v>1.22</v>
@@ -5815,13 +5923,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -5857,7 +5965,7 @@
         <v>10</v>
       </c>
       <c r="U49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
@@ -5884,7 +5992,7 @@
         <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE49" t="n">
         <v>15</v>
@@ -5899,7 +6007,7 @@
         <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ49" t="n">
         <v>151</v>
@@ -5958,10 +6066,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6301,13 +6409,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
@@ -6322,16 +6430,16 @@
         <v>2.63</v>
       </c>
       <c r="N53" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R53" t="n">
         <v>2.1</v>
@@ -6340,10 +6448,10 @@
         <v>1.67</v>
       </c>
       <c r="T53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V53" t="n">
         <v>9.5</v>
@@ -6355,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="Y53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z53" t="n">
         <v>7</v>
@@ -6367,7 +6475,7 @@
         <v>19</v>
       </c>
       <c r="AC53" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD53" t="n">
         <v>9</v>
@@ -6385,9 +6493,11 @@
         <v>41</v>
       </c>
       <c r="AI53" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ53" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6549,7 +6659,7 @@
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J55" t="n">
         <v>1.05</v>
@@ -6564,10 +6674,10 @@
         <v>3.5</v>
       </c>
       <c r="N55" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P55" t="n">
         <v>1.36</v>
@@ -6665,13 +6775,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1.06</v>
@@ -6713,7 +6823,7 @@
         <v>9.5</v>
       </c>
       <c r="W56" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -6734,7 +6844,7 @@
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -6743,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH56" t="n">
         <v>23</v>
@@ -6912,7 +7022,7 @@
         <v>2.2</v>
       </c>
       <c r="H58" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
         <v>3.25</v>
@@ -6921,7 +7031,7 @@
         <v>1.08</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.4</v>
@@ -6951,7 +7061,7 @@
         <v>6.5</v>
       </c>
       <c r="U58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V58" t="n">
         <v>9.5</v>
@@ -6984,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="AF58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG58" t="n">
         <v>34</v>
@@ -7031,19 +7141,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7082,7 +7192,7 @@
         <v>15</v>
       </c>
       <c r="X59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
         <v>29</v>
@@ -7112,7 +7222,7 @@
         <v>41</v>
       </c>
       <c r="AH59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI59" t="n">
         <v>41</v>
@@ -7153,13 +7263,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J60" t="n">
         <v>1.05</v>
@@ -7180,16 +7290,16 @@
         <v>1.9</v>
       </c>
       <c r="P60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q60" t="n">
         <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S60" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
         <v>9.5</v>
@@ -7222,7 +7332,7 @@
         <v>41</v>
       </c>
       <c r="AD60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
@@ -7237,7 +7347,7 @@
         <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ60" t="n">
         <v>201</v>
@@ -7412,16 +7522,16 @@
         <v>11</v>
       </c>
       <c r="L62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M62" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O62" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7885,19 +7995,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
         <v>1.57</v>
@@ -7918,10 +8028,10 @@
         <v>2.2</v>
       </c>
       <c r="R66" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T66" t="n">
         <v>5.5</v>
@@ -7966,7 +8076,7 @@
         <v>41</v>
       </c>
       <c r="AH66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI66" t="n">
         <v>51</v>
@@ -8005,13 +8115,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="I67" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8027,22 +8137,22 @@
         <v>12.5</v>
       </c>
       <c r="U67" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="V67" t="n">
         <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X67" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Y67" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z67" t="n">
         <v>29</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>27</v>
       </c>
       <c r="AA67" t="n">
         <v>21</v>
@@ -8054,20 +8164,20 @@
         <v>120</v>
       </c>
       <c r="AD67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AF67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI67" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ67" t="n">
         <v>600</v>
@@ -8139,7 +8249,7 @@
         <v>9.25</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z68" t="n">
         <v>21</v>
@@ -8167,7 +8277,7 @@
         <v>300</v>
       </c>
       <c r="AI68" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ68" t="inlineStr"/>
     </row>
@@ -8313,10 +8423,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I70" t="n">
         <v>5.2</v>
@@ -8326,21 +8436,21 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O70" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P70" t="n">
         <v>1.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="U70" t="n">
         <v>5.8</v>
@@ -8349,22 +8459,22 @@
         <v>7</v>
       </c>
       <c r="W70" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X70" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y70" t="n">
         <v>24</v>
       </c>
       <c r="Z70" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC70" t="n">
         <v>75</v>
@@ -8423,7 +8533,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
@@ -8454,22 +8564,22 @@
         <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V71" t="n">
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z71" t="n">
         <v>10.25</v>
@@ -8481,13 +8591,13 @@
         <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD71" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
         <v>9.5</v>
@@ -8499,10 +8609,10 @@
         <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ71" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72">
@@ -8670,7 +8780,7 @@
         <v>2.67</v>
       </c>
       <c r="N73" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O73" t="n">
         <v>1.62</v>
@@ -8688,7 +8798,7 @@
         <v>1.78</v>
       </c>
       <c r="T73" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U73" t="n">
         <v>9</v>
@@ -8712,7 +8822,7 @@
         <v>6.2</v>
       </c>
       <c r="AB73" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC73" t="n">
         <v>80</v>
@@ -8770,36 +8880,84 @@
           <t>Meerssen</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.8</v>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="U74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V74" t="n">
+        <v>9</v>
+      </c>
+      <c r="W74" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X74" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8832,36 +8990,84 @@
           <t>Blauw Geel</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T75" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="U75" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X75" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8956,36 +9162,84 @@
           <t>VV DOVO</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.22</v>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V77" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X77" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9019,13 +9273,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H78" t="n">
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
@@ -9034,16 +9288,16 @@
         <v>17</v>
       </c>
       <c r="L78" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M78" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O78" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P78" t="n">
         <v>1.29</v>
@@ -9067,10 +9321,10 @@
         <v>8.5</v>
       </c>
       <c r="W78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y78" t="n">
         <v>21</v>
@@ -9088,7 +9342,7 @@
         <v>41</v>
       </c>
       <c r="AD78" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE78" t="n">
         <v>26</v>
@@ -9097,10 +9351,10 @@
         <v>15</v>
       </c>
       <c r="AG78" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI78" t="n">
         <v>34</v>
@@ -9141,10 +9395,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H79" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I79" t="n">
         <v>3.3</v>
@@ -9156,22 +9410,22 @@
         <v>13</v>
       </c>
       <c r="L79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N79" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O79" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q79" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
         <v>1.7</v>
@@ -9180,13 +9434,13 @@
         <v>2.05</v>
       </c>
       <c r="T79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U79" t="n">
         <v>10</v>
       </c>
       <c r="V79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W79" t="n">
         <v>19</v>
@@ -9198,10 +9452,10 @@
         <v>23</v>
       </c>
       <c r="Z79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB79" t="n">
         <v>15</v>
@@ -9213,7 +9467,7 @@
         <v>11</v>
       </c>
       <c r="AE79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF79" t="n">
         <v>12</v>
@@ -9225,7 +9479,7 @@
         <v>26</v>
       </c>
       <c r="AI79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ79" t="n">
         <v>201</v>
@@ -9263,7 +9517,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H80" t="n">
         <v>5.75</v>
@@ -9290,22 +9544,22 @@
         <v>2.7</v>
       </c>
       <c r="P80" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T80" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U80" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V80" t="n">
         <v>8.5</v>
@@ -9326,16 +9580,16 @@
         <v>12</v>
       </c>
       <c r="AB80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC80" t="n">
         <v>51</v>
       </c>
       <c r="AD80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF80" t="n">
         <v>19</v>
@@ -9385,13 +9639,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H81" t="n">
         <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J81" t="n">
         <v>1.04</v>
@@ -9406,10 +9660,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O81" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>1.33</v>
@@ -9427,7 +9681,7 @@
         <v>9.5</v>
       </c>
       <c r="U81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V81" t="n">
         <v>9.5</v>
@@ -9439,10 +9693,10 @@
         <v>19</v>
       </c>
       <c r="Y81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA81" t="n">
         <v>7</v>
@@ -9460,7 +9714,7 @@
         <v>15</v>
       </c>
       <c r="AF81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG81" t="n">
         <v>29</v>
@@ -10604,10 +10858,10 @@
         <v>2.88</v>
       </c>
       <c r="J92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L92" t="n">
         <v>1.29</v>
@@ -10616,10 +10870,10 @@
         <v>3.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O92" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P92" t="n">
         <v>1.4</v>
@@ -10726,13 +10980,13 @@
         <v>5.25</v>
       </c>
       <c r="J93" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K93" t="n">
         <v>8.5</v>
       </c>
       <c r="L93" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -11092,22 +11346,22 @@
         <v>2.25</v>
       </c>
       <c r="J96" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K96" t="n">
         <v>8</v>
       </c>
       <c r="L96" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M96" t="n">
         <v>2.75</v>
       </c>
       <c r="N96" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P96" t="n">
         <v>1.44</v>
@@ -11661,7 +11915,7 @@
         <v>1.5</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R101" t="n">
         <v>1.91</v>
@@ -11670,7 +11924,7 @@
         <v>1.8</v>
       </c>
       <c r="T101" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U101" t="n">
         <v>10.25</v>
@@ -11679,10 +11933,10 @@
         <v>9.25</v>
       </c>
       <c r="W101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X101" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y101" t="n">
         <v>35</v>
@@ -11700,22 +11954,22 @@
         <v>90</v>
       </c>
       <c r="AD101" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE101" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF101" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG101" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH101" t="n">
         <v>29</v>
       </c>
       <c r="AI101" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ101" t="n">
         <v>800</v>
@@ -11875,13 +12129,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J103" t="n">
         <v>1.05</v>
@@ -11914,16 +12168,16 @@
         <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V103" t="n">
         <v>9</v>
       </c>
       <c r="W103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X103" t="n">
         <v>17</v>
@@ -11947,10 +12201,10 @@
         <v>11</v>
       </c>
       <c r="AE103" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG103" t="n">
         <v>41</v>
@@ -11997,31 +12251,31 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H104" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O104" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -12042,16 +12296,16 @@
         <v>13</v>
       </c>
       <c r="V104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X104" t="n">
         <v>19</v>
       </c>
       <c r="Y104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z104" t="n">
         <v>13</v>
@@ -12060,16 +12314,16 @@
         <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>41</v>
       </c>
       <c r="AD104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF104" t="n">
         <v>10</v>
@@ -12152,7 +12406,7 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S105" t="n">
         <v>2.1</v>
@@ -12274,7 +12528,7 @@
         <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S106" t="n">
         <v>2.05</v>
@@ -12384,10 +12638,10 @@
         <v>5.5</v>
       </c>
       <c r="N107" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O107" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P107" t="n">
         <v>1.25</v>
@@ -12500,16 +12754,16 @@
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O108" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P108" t="n">
         <v>1.3</v>
@@ -12518,7 +12772,7 @@
         <v>3.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S108" t="n">
         <v>2.2</v>
@@ -12619,7 +12873,7 @@
         <v>1.04</v>
       </c>
       <c r="K109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L109" t="n">
         <v>1.25</v>
@@ -12628,10 +12882,10 @@
         <v>3.75</v>
       </c>
       <c r="N109" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O109" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P109" t="n">
         <v>1.33</v>
@@ -12640,7 +12894,7 @@
         <v>3.25</v>
       </c>
       <c r="R109" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S109" t="n">
         <v>2.1</v>
@@ -12860,13 +13114,13 @@
         <v>5.75</v>
       </c>
       <c r="J111" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K111" t="n">
-        <v>26</v>
+        <v>1.02</v>
       </c>
       <c r="L111" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="M111" t="n">
         <v>9</v>
@@ -12973,7 +13227,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>5.5</v>
@@ -12988,28 +13242,28 @@
         <v>29</v>
       </c>
       <c r="L112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N112" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O112" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P112" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Q112" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S112" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T112" t="n">
         <v>34</v>
@@ -13021,7 +13275,7 @@
         <v>21</v>
       </c>
       <c r="W112" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X112" t="n">
         <v>41</v>
@@ -13030,10 +13284,10 @@
         <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB112" t="n">
         <v>15</v>
@@ -13048,7 +13302,7 @@
         <v>11</v>
       </c>
       <c r="AF112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG112" t="n">
         <v>12</v>
@@ -13701,13 +13955,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I118" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -13736,28 +13990,28 @@
         <v>1.62</v>
       </c>
       <c r="T118" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U118" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V118" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W118" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X118" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y118" t="n">
         <v>45</v>
       </c>
       <c r="Z118" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB118" t="n">
         <v>17.5</v>
@@ -13766,16 +14020,16 @@
         <v>110</v>
       </c>
       <c r="AD118" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE118" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG118" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH118" t="n">
         <v>35</v>
@@ -14082,10 +14336,10 @@
         <v>4</v>
       </c>
       <c r="R121" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S121" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T121" t="n">
         <v>13</v>
@@ -14094,7 +14348,7 @@
         <v>13</v>
       </c>
       <c r="V121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W121" t="n">
         <v>21</v>
@@ -14174,10 +14428,10 @@
         <v>1.8</v>
       </c>
       <c r="H122" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I122" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J122" t="n">
         <v>1.04</v>
@@ -14204,16 +14458,16 @@
         <v>3.25</v>
       </c>
       <c r="R122" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S122" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T122" t="n">
         <v>8.5</v>
       </c>
       <c r="U122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
@@ -14246,7 +14500,7 @@
         <v>23</v>
       </c>
       <c r="AF122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG122" t="n">
         <v>41</v>
@@ -14293,31 +14547,31 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J123" t="n">
         <v>1.04</v>
       </c>
       <c r="K123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L123" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M123" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N123" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O123" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P123" t="n">
         <v>1.33</v>
@@ -14338,7 +14592,7 @@
         <v>12</v>
       </c>
       <c r="V123" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W123" t="n">
         <v>21</v>
@@ -14347,13 +14601,13 @@
         <v>17</v>
       </c>
       <c r="Y123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB123" t="n">
         <v>13</v>
@@ -14362,7 +14616,7 @@
         <v>41</v>
       </c>
       <c r="AD123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE123" t="n">
         <v>15</v>
@@ -14377,7 +14631,7 @@
         <v>21</v>
       </c>
       <c r="AI123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ123" t="n">
         <v>151</v>
@@ -14546,13 +14800,13 @@
         <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L125" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="M125" t="n">
         <v>6</v>
@@ -14594,10 +14848,10 @@
         <v>19</v>
       </c>
       <c r="Z125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB125" t="n">
         <v>11</v>
@@ -14668,10 +14922,10 @@
         <v>3.8</v>
       </c>
       <c r="J126" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L126" t="n">
         <v>1.2</v>
@@ -14808,10 +15062,10 @@
         <v>2.35</v>
       </c>
       <c r="P127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q127" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R127" t="n">
         <v>1.57</v>
@@ -14838,13 +15092,13 @@
         <v>21</v>
       </c>
       <c r="Z127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC127" t="n">
         <v>41</v>
@@ -14853,7 +15107,7 @@
         <v>17</v>
       </c>
       <c r="AE127" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF127" t="n">
         <v>15</v>
@@ -14906,43 +15160,43 @@
         <v>2.63</v>
       </c>
       <c r="H128" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I128" t="n">
         <v>2.6</v>
       </c>
       <c r="J128" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L128" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M128" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N128" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O128" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P128" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q128" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R128" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S128" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
@@ -14960,19 +15214,19 @@
         <v>23</v>
       </c>
       <c r="Z128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD128" t="n">
         <v>12</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>11</v>
       </c>
       <c r="AE128" t="n">
         <v>15</v>
@@ -14990,7 +15244,7 @@
         <v>23</v>
       </c>
       <c r="AJ128" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129">
@@ -15025,13 +15279,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -15418,7 +15672,7 @@
         <v>2.1</v>
       </c>
       <c r="P132" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q132" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>1.14</v>
@@ -809,13 +809,13 @@
         <v>4.75</v>
       </c>
       <c r="U3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -833,13 +833,13 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -848,10 +848,10 @@
         <v>51</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
@@ -908,16 +908,16 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>2.75</v>
@@ -1019,7 +1019,7 @@
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.8</v>
@@ -1247,19 +1247,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1286,19 +1286,19 @@
         <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>51</v>
@@ -1307,31 +1307,31 @@
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>126</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1376,10 +1376,10 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.67</v>
@@ -1508,10 +1508,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -2033,90 +2033,90 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O16" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
         <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="V16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W16" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
         <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AH16" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17">
@@ -2160,10 +2160,10 @@
         <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -2172,10 +2172,10 @@
         <v>2.63</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
         <v>1.53</v>
@@ -2279,7 +2279,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2318,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>26</v>
@@ -2342,13 +2342,13 @@
         <v>67</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>3.7</v>
@@ -2407,55 +2407,55 @@
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="U19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
         <v>17.5</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB19" t="n">
         <v>14.5</v>
@@ -2464,10 +2464,10 @@
         <v>70</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>12.5</v>
@@ -2482,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -2762,43 +2762,43 @@
         <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R22" t="n">
         <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U22" t="n">
         <v>11</v>
@@ -2807,16 +2807,16 @@
         <v>9</v>
       </c>
       <c r="W22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -2825,25 +2825,25 @@
         <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD22" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
         <v>40</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
         <v>500</v>
@@ -2884,16 +2884,16 @@
         <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -2920,7 +2920,7 @@
         <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
         <v>29</v>
@@ -2938,7 +2938,7 @@
         <v>67</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
         <v>7</v>
@@ -2947,13 +2947,13 @@
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD23" t="n">
         <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="n">
         <v>9.5</v>
@@ -3003,19 +3003,19 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.55</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L24" t="n">
         <v>1.26</v>
@@ -3027,28 +3027,28 @@
         <v>1.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U24" t="n">
         <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W24" t="n">
         <v>55</v>
@@ -3057,22 +3057,22 @@
         <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE24" t="n">
         <v>10.5</v>
@@ -3081,16 +3081,16 @@
         <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
         <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25">
@@ -3247,13 +3247,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>1.06</v>
@@ -3268,10 +3268,10 @@
         <v>3.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -3280,10 +3280,10 @@
         <v>2.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T26" t="n">
         <v>8</v>
@@ -3319,7 +3319,7 @@
         <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
@@ -3334,7 +3334,7 @@
         <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
@@ -3500,13 +3500,13 @@
         <v>5.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
         <v>13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
@@ -3979,86 +3979,90 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M32" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="N32" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.75</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.82</v>
       </c>
       <c r="T32" t="n">
         <v>6.5</v>
       </c>
       <c r="U32" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="V32" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W32" t="n">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AG32" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AH32" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -4205,84 +4209,84 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U34" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="V34" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W34" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X34" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AI34" t="n">
         <v>40</v>
@@ -4323,13 +4327,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4346,61 +4350,61 @@
         <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q35" t="n">
         <v>2.57</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W35" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X35" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
         <v>80</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE35" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG35" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
         <v>32</v>
@@ -4747,13 +4751,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J39" t="n">
         <v>1.01</v>
@@ -4768,13 +4772,17 @@
         <v>3.75</v>
       </c>
       <c r="N39" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R39" t="n">
         <v>1.67</v>
       </c>
@@ -4782,52 +4790,52 @@
         <v>2.1</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U39" t="n">
+        <v>11</v>
+      </c>
+      <c r="V39" t="n">
         <v>10</v>
       </c>
-      <c r="V39" t="n">
-        <v>9</v>
-      </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="n">
         <v>17</v>
       </c>
-      <c r="Y39" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE39" t="n">
         <v>13</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>17</v>
       </c>
       <c r="AF39" t="n">
         <v>11</v>
       </c>
       <c r="AG39" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AH39" t="n">
         <v>23</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
         <v>151</v>
@@ -4865,13 +4873,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -4886,10 +4894,10 @@
         <v>3.25</v>
       </c>
       <c r="N40" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
         <v>1.4</v>
@@ -4904,25 +4912,25 @@
         <v>1.83</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W40" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
@@ -4934,25 +4942,25 @@
         <v>51</v>
       </c>
       <c r="AD40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41">
@@ -4996,10 +5004,10 @@
         <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5008,10 +5016,10 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O41" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5107,19 +5115,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -5155,7 +5163,7 @@
         <v>13</v>
       </c>
       <c r="W42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X42" t="n">
         <v>29</v>
@@ -5176,16 +5184,16 @@
         <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
@@ -5194,7 +5202,7 @@
         <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
@@ -5573,13 +5581,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -5596,16 +5604,16 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U46" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V46" t="n">
         <v>6.9</v>
       </c>
       <c r="W46" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X46" t="n">
         <v>10.5</v>
@@ -5617,31 +5625,31 @@
         <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC46" t="n">
         <v>45</v>
       </c>
       <c r="AD46" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG46" t="n">
         <v>50</v>
       </c>
       <c r="AH46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI46" t="n">
         <v>30</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>32</v>
       </c>
       <c r="AJ46" t="n">
         <v>250</v>
@@ -5685,43 +5693,43 @@
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P47" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T47" t="n">
         <v>8.5</v>
       </c>
       <c r="U47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V47" t="n">
         <v>9</v>
@@ -5736,7 +5744,7 @@
         <v>23</v>
       </c>
       <c r="Z47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
@@ -5760,7 +5768,7 @@
         <v>41</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>34</v>
@@ -5938,16 +5946,16 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -5962,10 +5970,10 @@
         <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V49" t="n">
         <v>10</v>
@@ -5974,28 +5982,28 @@
         <v>26</v>
       </c>
       <c r="X49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
         <v>13</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>12</v>
       </c>
       <c r="AC49" t="n">
         <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>10</v>
@@ -6004,10 +6012,10 @@
         <v>26</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
         <v>151</v>
@@ -6188,10 +6196,10 @@
         <v>2.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
         <v>1.67</v>
@@ -6293,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J52" t="n">
         <v>1.04</v>
@@ -6302,31 +6310,31 @@
         <v>13</v>
       </c>
       <c r="L52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O52" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S52" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U52" t="n">
         <v>9</v>
@@ -6344,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA52" t="n">
         <v>7.5</v>
@@ -6356,13 +6364,13 @@
         <v>51</v>
       </c>
       <c r="AD52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE52" t="n">
         <v>21</v>
       </c>
       <c r="AF52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG52" t="n">
         <v>41</v>
@@ -6374,7 +6382,7 @@
         <v>34</v>
       </c>
       <c r="AJ52" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53">
@@ -6409,19 +6417,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
         <v>1.44</v>
@@ -6442,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S53" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T53" t="n">
         <v>6</v>
@@ -6466,7 +6474,7 @@
         <v>34</v>
       </c>
       <c r="Z53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA53" t="n">
         <v>6.5</v>
@@ -6484,13 +6492,13 @@
         <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
         <v>41</v>
       </c>
       <c r="AH53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI53" t="n">
         <v>41</v>
@@ -6540,10 +6548,10 @@
         <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
         <v>1.36</v>
@@ -6552,10 +6560,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P54" t="n">
         <v>1.44</v>
@@ -6659,7 +6667,7 @@
         <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
         <v>1.05</v>
@@ -6668,10 +6676,10 @@
         <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N55" t="n">
         <v>1.9</v>
@@ -6784,22 +6792,22 @@
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -6918,10 +6926,10 @@
         <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O57" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7019,13 +7027,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
         <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J58" t="n">
         <v>1.08</v>
@@ -7061,10 +7069,10 @@
         <v>6.5</v>
       </c>
       <c r="U58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
         <v>21</v>
@@ -7088,13 +7096,13 @@
         <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE58" t="n">
         <v>15</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
         <v>34</v>
@@ -7141,19 +7149,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.33</v>
@@ -7174,22 +7182,22 @@
         <v>2.63</v>
       </c>
       <c r="R59" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T59" t="n">
         <v>6.5</v>
       </c>
       <c r="U59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X59" t="n">
         <v>15</v>
@@ -7213,13 +7221,13 @@
         <v>11</v>
       </c>
       <c r="AE59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF59" t="n">
         <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="n">
         <v>41</v>
@@ -7278,19 +7286,19 @@
         <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N60" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O60" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P60" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q60" t="n">
         <v>3</v>
@@ -7522,16 +7530,16 @@
         <v>11</v>
       </c>
       <c r="L62" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M62" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7629,13 +7637,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H63" t="n">
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1.05</v>
@@ -7686,7 +7694,7 @@
         <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA63" t="n">
         <v>7</v>
@@ -7698,13 +7706,13 @@
         <v>51</v>
       </c>
       <c r="AD63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG63" t="n">
         <v>51</v>
@@ -8004,10 +8012,10 @@
         <v>3.4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.57</v>
@@ -8121,7 +8129,7 @@
         <v>8.5</v>
       </c>
       <c r="I67" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8134,37 +8142,37 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U67" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="V67" t="n">
         <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="X67" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y67" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z67" t="n">
         <v>30</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>29</v>
       </c>
       <c r="AA67" t="n">
         <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE67" t="n">
         <v>200</v>
@@ -8218,10 +8226,10 @@
         <v>1.09</v>
       </c>
       <c r="H68" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8234,52 +8242,54 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W68" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X68" t="n">
         <v>9</v>
       </c>
-      <c r="U68" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="V68" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W68" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X68" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Y68" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z68" t="n">
         <v>21</v>
       </c>
       <c r="AA68" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC68" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD68" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE68" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF68" t="n">
         <v>65</v>
       </c>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AI68" t="n">
         <v>150</v>
       </c>
-      <c r="AJ68" t="inlineStr"/>
+      <c r="AJ68" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8326,7 +8336,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
         <v>1.65</v>
@@ -8335,12 +8345,12 @@
         <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U69" t="n">
         <v>19</v>
@@ -8349,7 +8359,7 @@
         <v>12.5</v>
       </c>
       <c r="W69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X69" t="n">
         <v>37</v>
@@ -8370,10 +8380,10 @@
         <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF69" t="n">
         <v>7.1</v>
@@ -8382,7 +8392,7 @@
         <v>10</v>
       </c>
       <c r="AH69" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI69" t="n">
         <v>25</v>
@@ -8564,10 +8574,10 @@
         <v>2.15</v>
       </c>
       <c r="T71" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U71" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V71" t="n">
         <v>9.5</v>
@@ -8579,7 +8589,7 @@
         <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
         <v>10.25</v>
@@ -8594,10 +8604,10 @@
         <v>45</v>
       </c>
       <c r="AD71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF71" t="n">
         <v>9.5</v>
@@ -8739,12 +8749,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -8763,21 +8773,21 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H73" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M73" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="N73" t="n">
         <v>2.02</v>
@@ -8786,31 +8796,31 @@
         <v>1.62</v>
       </c>
       <c r="P73" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T73" t="n">
         <v>6.5</v>
       </c>
       <c r="U73" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V73" t="n">
         <v>8.5</v>
       </c>
       <c r="W73" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X73" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y73" t="n">
         <v>30</v>
@@ -8819,19 +8829,19 @@
         <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB73" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC73" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD73" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF73" t="n">
         <v>13</v>
@@ -9214,7 +9224,7 @@
         <v>9.25</v>
       </c>
       <c r="AB77" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC77" t="n">
         <v>70</v>
@@ -9273,31 +9283,31 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
       </c>
       <c r="K78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L78" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N78" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O78" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P78" t="n">
         <v>1.29</v>
@@ -9312,7 +9322,7 @@
         <v>2.2</v>
       </c>
       <c r="T78" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U78" t="n">
         <v>9.5</v>
@@ -9321,10 +9331,10 @@
         <v>8.5</v>
       </c>
       <c r="W78" t="n">
+        <v>15</v>
+      </c>
+      <c r="X78" t="n">
         <v>13</v>
-      </c>
-      <c r="X78" t="n">
-        <v>12</v>
       </c>
       <c r="Y78" t="n">
         <v>21</v>
@@ -9333,7 +9343,7 @@
         <v>15</v>
       </c>
       <c r="AA78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB78" t="n">
         <v>13</v>
@@ -9342,19 +9352,19 @@
         <v>41</v>
       </c>
       <c r="AD78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG78" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
         <v>34</v>
@@ -9395,10 +9405,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I79" t="n">
         <v>3.3</v>
@@ -9410,22 +9420,22 @@
         <v>13</v>
       </c>
       <c r="L79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M79" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N79" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O79" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R79" t="n">
         <v>1.7</v>
@@ -9434,13 +9444,13 @@
         <v>2.05</v>
       </c>
       <c r="T79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U79" t="n">
         <v>10</v>
       </c>
       <c r="V79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W79" t="n">
         <v>19</v>
@@ -9452,10 +9462,10 @@
         <v>23</v>
       </c>
       <c r="Z79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA79" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB79" t="n">
         <v>15</v>
@@ -9467,7 +9477,7 @@
         <v>11</v>
       </c>
       <c r="AE79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF79" t="n">
         <v>12</v>
@@ -9479,7 +9489,7 @@
         <v>26</v>
       </c>
       <c r="AI79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ79" t="n">
         <v>201</v>
@@ -9654,10 +9664,10 @@
         <v>13</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N81" t="n">
         <v>1.8</v>
@@ -10026,10 +10036,10 @@
         <v>4</v>
       </c>
       <c r="N84" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O84" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P84" t="n">
         <v>1.33</v>
@@ -10727,13 +10737,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
@@ -10742,16 +10752,16 @@
         <v>9</v>
       </c>
       <c r="L91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N91" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O91" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P91" t="n">
         <v>1.44</v>
@@ -10766,16 +10776,16 @@
         <v>1.83</v>
       </c>
       <c r="T91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U91" t="n">
         <v>13</v>
       </c>
       <c r="V91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X91" t="n">
         <v>23</v>
@@ -10784,7 +10794,7 @@
         <v>34</v>
       </c>
       <c r="Z91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
@@ -10799,16 +10809,16 @@
         <v>8</v>
       </c>
       <c r="AE91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG91" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI91" t="n">
         <v>34</v>
@@ -10849,13 +10859,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H92" t="n">
         <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J92" t="n">
         <v>1.05</v>
@@ -10888,16 +10898,16 @@
         <v>2</v>
       </c>
       <c r="T92" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U92" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V92" t="n">
         <v>10</v>
       </c>
       <c r="W92" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X92" t="n">
         <v>21</v>
@@ -10906,7 +10916,7 @@
         <v>29</v>
       </c>
       <c r="Z92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA92" t="n">
         <v>6</v>
@@ -10915,28 +10925,28 @@
         <v>13</v>
       </c>
       <c r="AC92" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD92" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG92" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI92" t="n">
         <v>29</v>
       </c>
-      <c r="AH92" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ92" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -10971,19 +10981,19 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I93" t="n">
         <v>5.25</v>
       </c>
       <c r="J93" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L93" t="n">
         <v>1.36</v>
@@ -11004,16 +11014,16 @@
         <v>2.63</v>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S93" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T93" t="n">
         <v>6</v>
       </c>
       <c r="U93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
@@ -11028,10 +11038,10 @@
         <v>34</v>
       </c>
       <c r="Z93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA93" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB93" t="n">
         <v>19</v>
@@ -11224,16 +11234,16 @@
         <v>3.1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N95" t="n">
         <v>2.1</v>
@@ -11352,10 +11362,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M96" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N96" t="n">
         <v>2.25</v>
@@ -11462,16 +11472,16 @@
         <v>2.38</v>
       </c>
       <c r="H97" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J97" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -11480,58 +11490,58 @@
         <v>3.75</v>
       </c>
       <c r="N97" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O97" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P97" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S97" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V97" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W97" t="n">
         <v>23</v>
       </c>
       <c r="X97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB97" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE97" t="n">
         <v>15</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>13</v>
       </c>
       <c r="AF97" t="n">
         <v>10</v>
@@ -11546,7 +11556,7 @@
         <v>29</v>
       </c>
       <c r="AJ97" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
@@ -11822,36 +11832,96 @@
           <t>Cultural Leonesa</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K100" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T100" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V100" t="n">
+        <v>9</v>
+      </c>
+      <c r="W100" t="n">
+        <v>22</v>
+      </c>
+      <c r="X100" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11885,91 +11955,91 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="H101" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J101" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K101" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="L101" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M101" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="N101" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="O101" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P101" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S101" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T101" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U101" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V101" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X101" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y101" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG101" t="n">
         <v>35</v>
       </c>
-      <c r="Z101" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>40</v>
-      </c>
       <c r="AH101" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ101" t="n">
         <v>800</v>
@@ -12272,10 +12342,10 @@
         <v>4</v>
       </c>
       <c r="N104" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O104" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P104" t="n">
         <v>1.33</v>
@@ -12385,7 +12455,7 @@
         <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L105" t="n">
         <v>1.22</v>
@@ -12406,7 +12476,7 @@
         <v>3.25</v>
       </c>
       <c r="R105" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S105" t="n">
         <v>2.1</v>
@@ -12528,7 +12598,7 @@
         <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S106" t="n">
         <v>2.05</v>
@@ -12754,16 +12824,16 @@
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
         <v>1.3</v>
@@ -12772,7 +12842,7 @@
         <v>3.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S108" t="n">
         <v>2.2</v>
@@ -12894,7 +12964,7 @@
         <v>3.25</v>
       </c>
       <c r="R109" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S109" t="n">
         <v>2.1</v>
@@ -13004,10 +13074,10 @@
         <v>6.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O110" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P110" t="n">
         <v>1.2</v>
@@ -13105,31 +13175,31 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I111" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K111" t="n">
         <v>26</v>
       </c>
-      <c r="K111" t="n">
-        <v>1.02</v>
-      </c>
       <c r="L111" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="M111" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N111" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O111" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P111" t="n">
         <v>1.17</v>
@@ -13138,40 +13208,40 @@
         <v>5</v>
       </c>
       <c r="R111" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S111" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T111" t="n">
         <v>15</v>
       </c>
       <c r="U111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V111" t="n">
         <v>9.5</v>
       </c>
       <c r="W111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z111" t="n">
         <v>29</v>
       </c>
       <c r="AA111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD111" t="n">
         <v>29</v>
@@ -13189,7 +13259,7 @@
         <v>41</v>
       </c>
       <c r="AI111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ111" t="n">
         <v>81</v>
@@ -13227,19 +13297,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H112" t="n">
         <v>5.5</v>
       </c>
       <c r="I112" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="J112" t="n">
         <v>1.01</v>
       </c>
       <c r="K112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L112" t="n">
         <v>1.06</v>
@@ -13260,13 +13330,13 @@
         <v>5.5</v>
       </c>
       <c r="R112" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S112" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="U112" t="n">
         <v>41</v>
@@ -13281,7 +13351,7 @@
         <v>41</v>
       </c>
       <c r="Y112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z112" t="n">
         <v>34</v>
@@ -13296,16 +13366,16 @@
         <v>34</v>
       </c>
       <c r="AD112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH112" t="n">
         <v>10</v>
@@ -13364,16 +13434,16 @@
         <v>15</v>
       </c>
       <c r="L113" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M113" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N113" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P113" t="n">
         <v>1.3</v>
@@ -13483,7 +13553,7 @@
         <v>1.08</v>
       </c>
       <c r="K114" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L114" t="n">
         <v>1.44</v>
@@ -13492,10 +13562,10 @@
         <v>2.63</v>
       </c>
       <c r="N114" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O114" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P114" t="n">
         <v>1.5</v>
@@ -14303,13 +14373,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J121" t="n">
         <v>1.02</v>
@@ -14345,7 +14415,7 @@
         <v>13</v>
       </c>
       <c r="U121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V121" t="n">
         <v>9.5</v>
@@ -14681,7 +14751,7 @@
         <v>1.03</v>
       </c>
       <c r="K124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124" t="n">
         <v>1.17</v>
@@ -14800,13 +14870,13 @@
         <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L125" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="M125" t="n">
         <v>6</v>
@@ -14913,7 +14983,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>3.8</v>
@@ -14922,10 +14992,10 @@
         <v>3.8</v>
       </c>
       <c r="J126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L126" t="n">
         <v>1.2</v>
@@ -15279,13 +15349,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H129" t="n">
         <v>3.75</v>
       </c>
       <c r="I129" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J129" t="n">
         <v>1.04</v>
@@ -15410,40 +15480,40 @@
         <v>4.5</v>
       </c>
       <c r="J130" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K130" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M130" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N130" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O130" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P130" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q130" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S130" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V130" t="n">
         <v>8.5</v>
@@ -15458,7 +15528,7 @@
         <v>23</v>
       </c>
       <c r="Z130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA130" t="n">
         <v>7</v>
@@ -15467,7 +15537,7 @@
         <v>15</v>
       </c>
       <c r="AC130" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD130" t="n">
         <v>13</v>
@@ -15672,7 +15742,7 @@
         <v>2.1</v>
       </c>
       <c r="P132" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q132" t="n">
         <v>3.4</v>
@@ -15767,7 +15837,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="H133" t="n">
         <v>3.15</v>
@@ -15778,22 +15848,22 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M133" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N133" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O133" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P133" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R133" t="n">
         <v>1.98</v>
@@ -15802,10 +15872,10 @@
         <v>1.65</v>
       </c>
       <c r="T133" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V133" t="n">
         <v>14</v>
@@ -15820,7 +15890,7 @@
         <v>60</v>
       </c>
       <c r="Z133" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA133" t="n">
         <v>6.2</v>
@@ -15832,7 +15902,7 @@
         <v>110</v>
       </c>
       <c r="AD133" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE133" t="n">
         <v>8</v>
@@ -15847,7 +15917,7 @@
         <v>17.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ133" t="n">
         <v>1000</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-31.xlsx
@@ -1256,16 +1256,16 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N7" t="n">
         <v>3.4</v>
@@ -1376,13 +1376,13 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
         <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M8" t="n">
         <v>2.1</v>
@@ -1508,10 +1508,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -2037,27 +2037,27 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H16" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
@@ -2066,61 +2066,61 @@
         <v>2.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U16" t="n">
         <v>6.2</v>
       </c>
       <c r="V16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W16" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2188,10 +2188,10 @@
         <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
         <v>6</v>
@@ -2209,10 +2209,10 @@
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2230,13 +2230,13 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>41</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
         <v>41</v>
@@ -2429,7 +2429,7 @@
         <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R19" t="n">
         <v>1.82</v>
@@ -2438,10 +2438,10 @@
         <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2450,10 +2450,10 @@
         <v>17.5</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
         <v>6.9</v>
@@ -2468,10 +2468,10 @@
         <v>70</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF19" t="n">
         <v>12.5</v>
@@ -2763,37 +2763,37 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N22" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R22" t="n">
         <v>1.78</v>
@@ -2802,31 +2802,31 @@
         <v>1.93</v>
       </c>
       <c r="T22" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U22" t="n">
         <v>10.75</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
         <v>65</v>
@@ -2844,7 +2844,7 @@
         <v>40</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
         <v>35</v>
@@ -2906,10 +2906,10 @@
         <v>2.63</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -3141,37 +3141,37 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T25" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V25" t="n">
         <v>11.5</v>
@@ -3180,28 +3180,28 @@
         <v>40</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AA25" t="n">
         <v>6.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF25" t="n">
         <v>9.75</v>
@@ -3210,13 +3210,13 @@
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26">
@@ -3394,10 +3394,10 @@
         <v>2.57</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
         <v>1.55</v>
@@ -3983,27 +3983,27 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N32" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
         <v>1.39</v>
@@ -4021,13 +4021,13 @@
         <v>6.4</v>
       </c>
       <c r="U32" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="V32" t="n">
         <v>8</v>
       </c>
       <c r="W32" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X32" t="n">
         <v>12.5</v>
@@ -4036,31 +4036,31 @@
         <v>27</v>
       </c>
       <c r="Z32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
         <v>80</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
@@ -4101,13 +4101,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="H33" t="n">
         <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -4115,7 +4115,7 @@
         <v>1.28</v>
       </c>
       <c r="M33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
         <v>1.83</v>
@@ -4124,10 +4124,10 @@
         <v>1.78</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R33" t="n">
         <v>2.18</v>
@@ -4136,7 +4136,7 @@
         <v>1.53</v>
       </c>
       <c r="T33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="U33" t="n">
         <v>65</v>
@@ -4148,7 +4148,7 @@
         <v>300</v>
       </c>
       <c r="X33" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Y33" t="n">
         <v>120</v>
@@ -4217,24 +4217,24 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N34" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O34" t="n">
         <v>1.7</v>
@@ -4246,58 +4246,58 @@
         <v>2.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="U34" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
         <v>8.25</v>
       </c>
       <c r="W34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X34" t="n">
         <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC34" t="n">
         <v>75</v>
       </c>
       <c r="AD34" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF34" t="n">
         <v>13.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH34" t="n">
         <v>40</v>
       </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="n">
         <v>600</v>
@@ -4400,7 +4400,7 @@
         <v>90</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE35" t="n">
         <v>8.75</v>
@@ -4786,10 +4786,10 @@
         <v>1.73</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R39" t="n">
         <v>1.67</v>
@@ -4968,7 +4968,7 @@
         <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5012,10 +5012,10 @@
         <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5024,10 +5024,10 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O41" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5039,7 +5039,7 @@
         <v>2.1</v>
       </c>
       <c r="S41" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T41" t="n">
         <v>6</v>
@@ -5129,13 +5129,13 @@
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J42" t="n">
         <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.33</v>
@@ -5195,10 +5195,10 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF42" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>9</v>
       </c>
       <c r="AG42" t="n">
         <v>19</v>
@@ -5365,76 +5365,76 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
         <v>6.7</v>
       </c>
       <c r="J44" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2.87</v>
       </c>
-      <c r="N44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R44" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="S44" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T44" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="U44" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="V44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W44" t="n">
         <v>10</v>
       </c>
       <c r="X44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD44" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE44" t="n">
         <v>40</v>
@@ -5443,16 +5443,16 @@
         <v>21</v>
       </c>
       <c r="AG44" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH44" t="n">
         <v>80</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45">
@@ -5645,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="n">
         <v>11.5</v>
@@ -5939,19 +5939,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
         <v>1.25</v>
@@ -5990,7 +5990,7 @@
         <v>26</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="n">
         <v>26</v>
@@ -6198,22 +6198,22 @@
         <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
         <v>1.73</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
         <v>2.5</v>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
         <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
         <v>1.04</v>
@@ -6318,10 +6318,10 @@
         <v>13</v>
       </c>
       <c r="L52" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N52" t="n">
         <v>1.75</v>
@@ -6354,7 +6354,7 @@
         <v>15</v>
       </c>
       <c r="X52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
         <v>23</v>
@@ -6384,7 +6384,7 @@
         <v>41</v>
       </c>
       <c r="AH52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI52" t="n">
         <v>34</v>
@@ -6425,31 +6425,31 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N53" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P53" t="n">
         <v>1.5</v>
@@ -6458,10 +6458,10 @@
         <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T53" t="n">
         <v>6</v>
@@ -6470,7 +6470,7 @@
         <v>8.5</v>
       </c>
       <c r="V53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W53" t="n">
         <v>17</v>
@@ -6488,13 +6488,13 @@
         <v>6.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC53" t="n">
         <v>67</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
@@ -6556,10 +6556,10 @@
         <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
         <v>1.36</v>
@@ -6580,10 +6580,10 @@
         <v>2.63</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
         <v>8</v>
@@ -6601,7 +6601,7 @@
         <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="n">
         <v>8</v>
@@ -6619,7 +6619,7 @@
         <v>7.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
         <v>10</v>
@@ -6634,7 +6634,7 @@
         <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55">
@@ -6678,22 +6678,22 @@
         <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M55" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P55" t="n">
         <v>1.36</v>
@@ -7122,7 +7122,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="59">
@@ -7157,13 +7157,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J59" t="n">
         <v>1.06</v>
@@ -7196,7 +7196,7 @@
         <v>1.73</v>
       </c>
       <c r="T59" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
         <v>7.5</v>
@@ -7220,10 +7220,10 @@
         <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
         <v>11</v>
@@ -7279,13 +7279,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J60" t="n">
         <v>1.05</v>
@@ -7300,16 +7300,16 @@
         <v>3.5</v>
       </c>
       <c r="N60" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O60" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P60" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R60" t="n">
         <v>1.73</v>
@@ -7318,46 +7318,46 @@
         <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U60" t="n">
         <v>13</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y60" t="n">
         <v>29</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF60" t="n">
         <v>10</v>
       </c>
       <c r="AG60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH60" t="n">
         <v>21</v>
@@ -7416,16 +7416,16 @@
         <v>11</v>
       </c>
       <c r="L61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M61" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N61" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O61" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P61" t="n">
         <v>1.4</v>
@@ -7523,13 +7523,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J62" t="n">
         <v>1.05</v>
@@ -7538,16 +7538,16 @@
         <v>11</v>
       </c>
       <c r="L62" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M62" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O62" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7565,16 +7565,16 @@
         <v>8</v>
       </c>
       <c r="U62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V62" t="n">
         <v>9</v>
       </c>
       <c r="W62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
         <v>26</v>
@@ -7583,10 +7583,10 @@
         <v>11</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC62" t="n">
         <v>41</v>
@@ -7595,16 +7595,16 @@
         <v>11</v>
       </c>
       <c r="AE62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI62" t="n">
         <v>34</v>
@@ -7648,34 +7648,34 @@
         <v>1.6</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O63" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
         <v>1.91</v>
@@ -7705,7 +7705,7 @@
         <v>10</v>
       </c>
       <c r="AA63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB63" t="n">
         <v>17</v>
@@ -7717,7 +7717,7 @@
         <v>13</v>
       </c>
       <c r="AE63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF63" t="n">
         <v>17</v>
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J64" t="n">
         <v>1.06</v>
@@ -7794,10 +7794,10 @@
         <v>1.75</v>
       </c>
       <c r="P64" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R64" t="n">
         <v>1.83</v>
@@ -7812,10 +7812,10 @@
         <v>10</v>
       </c>
       <c r="V64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X64" t="n">
         <v>19</v>
@@ -7824,7 +7824,7 @@
         <v>29</v>
       </c>
       <c r="Z64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA64" t="n">
         <v>6.5</v>
@@ -7836,10 +7836,10 @@
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF64" t="n">
         <v>12</v>
@@ -7848,7 +7848,7 @@
         <v>34</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI64" t="n">
         <v>34</v>
@@ -8020,10 +8020,10 @@
         <v>3.4</v>
       </c>
       <c r="J66" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K66" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
         <v>1.57</v>
@@ -8131,13 +8131,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H67" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="I67" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8153,22 +8153,22 @@
         <v>13.5</v>
       </c>
       <c r="U67" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V67" t="n">
         <v>12</v>
       </c>
       <c r="W67" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X67" t="n">
         <v>9.75</v>
       </c>
       <c r="Y67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z67" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA67" t="n">
         <v>21</v>
@@ -8180,13 +8180,13 @@
         <v>110</v>
       </c>
       <c r="AD67" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF67" t="n">
         <v>70</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>65</v>
       </c>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>150</v>
       </c>
       <c r="AJ67" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68">
@@ -8250,7 +8250,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U68" t="n">
         <v>6.2</v>
@@ -8265,7 +8265,7 @@
         <v>9</v>
       </c>
       <c r="Y68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z68" t="n">
         <v>21</v>
@@ -8274,7 +8274,7 @@
         <v>15.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC68" t="n">
         <v>100</v>
@@ -8286,14 +8286,14 @@
         <v>300</v>
       </c>
       <c r="AF68" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="n">
         <v>350</v>
       </c>
       <c r="AI68" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ68" t="n">
         <v>600</v>
@@ -8344,7 +8344,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O69" t="n">
         <v>1.65</v>
@@ -8353,12 +8353,12 @@
         <v>1.42</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U69" t="n">
         <v>19</v>
@@ -8367,7 +8367,7 @@
         <v>12.5</v>
       </c>
       <c r="W69" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X69" t="n">
         <v>37</v>
@@ -8388,10 +8388,10 @@
         <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE69" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF69" t="n">
         <v>7.1</v>
@@ -8400,7 +8400,7 @@
         <v>10</v>
       </c>
       <c r="AH69" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI69" t="n">
         <v>25</v>
@@ -8441,20 +8441,20 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I70" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O70" t="n">
         <v>1.7</v>
@@ -8471,16 +8471,16 @@
         <v>5.1</v>
       </c>
       <c r="U70" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="V70" t="n">
         <v>7</v>
       </c>
       <c r="W70" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="X70" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y70" t="n">
         <v>24</v>
@@ -8489,31 +8489,31 @@
         <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB70" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF70" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC70" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>14</v>
-      </c>
       <c r="AG70" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AH70" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ70" t="n">
         <v>600</v>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H71" t="n">
         <v>3</v>
@@ -8576,10 +8576,10 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S71" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T71" t="n">
         <v>10</v>
@@ -8591,7 +8591,7 @@
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X71" t="n">
         <v>21</v>
@@ -8609,7 +8609,7 @@
         <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD71" t="n">
         <v>9.5</v>
@@ -8630,7 +8630,7 @@
         <v>25</v>
       </c>
       <c r="AJ71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72">
@@ -8802,10 +8802,10 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S73" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="T73" t="n">
         <v>10.75</v>
@@ -9295,13 +9295,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H78" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J78" t="n">
         <v>1.03</v>
@@ -9334,7 +9334,7 @@
         <v>2.1</v>
       </c>
       <c r="T78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U78" t="n">
         <v>10</v>
@@ -9367,7 +9367,7 @@
         <v>12</v>
       </c>
       <c r="AE78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF78" t="n">
         <v>12</v>
@@ -9376,7 +9376,7 @@
         <v>41</v>
       </c>
       <c r="AH78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
         <v>29</v>
@@ -9539,19 +9539,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H80" t="n">
         <v>3.5</v>
       </c>
       <c r="I80" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J80" t="n">
         <v>1.04</v>
       </c>
       <c r="K80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L80" t="n">
         <v>1.25</v>
@@ -9584,7 +9584,7 @@
         <v>13</v>
       </c>
       <c r="V80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W80" t="n">
         <v>23</v>
@@ -9617,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="AG80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH80" t="n">
         <v>21</v>
@@ -10048,10 +10048,10 @@
         <v>5</v>
       </c>
       <c r="N84" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O84" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P84" t="n">
         <v>1.29</v>
@@ -10274,84 +10274,84 @@
         <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M86" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="N86" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="O86" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R86" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S86" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T86" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U86" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V86" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W86" t="n">
         <v>19</v>
       </c>
       <c r="X86" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z86" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA86" t="n">
         <v>6.3</v>
       </c>
       <c r="AB86" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC86" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD86" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AE86" t="n">
         <v>15.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AH86" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI86" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ86" t="inlineStr"/>
     </row>
@@ -10387,33 +10387,33 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="H87" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I87" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O87" t="n">
         <v>1.45</v>
-      </c>
-      <c r="M87" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N87" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.47</v>
       </c>
       <c r="P87" t="n">
         <v>1.53</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R87" t="n">
         <v>2</v>
@@ -10422,49 +10422,49 @@
         <v>1.65</v>
       </c>
       <c r="T87" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U87" t="n">
+        <v>11</v>
+      </c>
+      <c r="V87" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>27</v>
+      </c>
+      <c r="X87" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA87" t="n">
         <v>6.1</v>
       </c>
-      <c r="U87" t="n">
-        <v>10</v>
-      </c>
-      <c r="V87" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W87" t="n">
-        <v>23</v>
-      </c>
-      <c r="X87" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>6</v>
-      </c>
       <c r="AB87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC87" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE87" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AF87" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG87" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH87" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI87" t="n">
         <v>50</v>
@@ -10749,13 +10749,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
         <v>1.05</v>
@@ -10788,19 +10788,19 @@
         <v>2</v>
       </c>
       <c r="T91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y91" t="n">
         <v>29</v>
@@ -10818,19 +10818,19 @@
         <v>41</v>
       </c>
       <c r="AD91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI91" t="n">
         <v>29</v>
@@ -10871,10 +10871,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I92" t="n">
         <v>5.25</v>
@@ -10883,7 +10883,7 @@
         <v>1.07</v>
       </c>
       <c r="K92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L92" t="n">
         <v>1.36</v>
@@ -10904,16 +10904,16 @@
         <v>2.63</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S92" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T92" t="n">
         <v>6</v>
       </c>
       <c r="U92" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V92" t="n">
         <v>8.5</v>
@@ -10928,10 +10928,10 @@
         <v>34</v>
       </c>
       <c r="Z92" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB92" t="n">
         <v>19</v>
@@ -10993,13 +10993,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J93" t="n">
         <v>1.05</v>
@@ -11035,13 +11035,13 @@
         <v>7.5</v>
       </c>
       <c r="U93" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V93" t="n">
         <v>8.5</v>
       </c>
       <c r="W93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
@@ -11071,10 +11071,10 @@
         <v>15</v>
       </c>
       <c r="AG93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH93" t="n">
         <v>41</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>34</v>
       </c>
       <c r="AI93" t="n">
         <v>41</v>
@@ -11115,19 +11115,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L94" t="n">
         <v>1.33</v>
@@ -11142,10 +11142,10 @@
         <v>1.7</v>
       </c>
       <c r="P94" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R94" t="n">
         <v>1.83</v>
@@ -11157,7 +11157,7 @@
         <v>7.5</v>
       </c>
       <c r="U94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V94" t="n">
         <v>9.5</v>
@@ -11166,16 +11166,16 @@
         <v>21</v>
       </c>
       <c r="X94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y94" t="n">
         <v>29</v>
       </c>
       <c r="Z94" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB94" t="n">
         <v>15</v>
@@ -11184,7 +11184,7 @@
         <v>51</v>
       </c>
       <c r="AD94" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE94" t="n">
         <v>15</v>
@@ -11202,7 +11202,7 @@
         <v>34</v>
       </c>
       <c r="AJ94" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95">
@@ -11252,10 +11252,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N95" t="n">
         <v>2.25</v>
@@ -11481,10 +11481,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I97" t="n">
         <v>2.75</v>
@@ -11523,7 +11523,7 @@
         <v>8</v>
       </c>
       <c r="U97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V97" t="n">
         <v>11</v>
@@ -11723,13 +11723,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H99" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I99" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J99" t="n">
         <v>1.08</v>
@@ -11744,7 +11744,7 @@
         <v>3</v>
       </c>
       <c r="N99" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O99" t="n">
         <v>1.72</v>
@@ -11756,25 +11756,25 @@
         <v>2.42</v>
       </c>
       <c r="R99" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S99" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T99" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="U99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W99" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="X99" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y99" t="n">
         <v>26</v>
@@ -11783,34 +11783,34 @@
         <v>6.4</v>
       </c>
       <c r="AA99" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF99" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC99" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AG99" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AH99" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI99" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ99" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100">
@@ -11845,13 +11845,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I100" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J100" t="n">
         <v>1.11</v>
@@ -11875,7 +11875,7 @@
         <v>1.57</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R100" t="n">
         <v>2.05</v>
@@ -11884,49 +11884,49 @@
         <v>1.7</v>
       </c>
       <c r="T100" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U100" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="V100" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X100" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y100" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z100" t="n">
         <v>5.7</v>
       </c>
       <c r="AA100" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB100" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC100" t="n">
         <v>110</v>
       </c>
       <c r="AD100" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AE100" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG100" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH100" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI100" t="n">
         <v>50</v>
@@ -11967,31 +11967,31 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I101" t="n">
         <v>2.57</v>
       </c>
       <c r="J101" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K101" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L101" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M101" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="N101" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="O101" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="P101" t="n">
         <v>1.47</v>
@@ -12000,61 +12000,61 @@
         <v>2.5</v>
       </c>
       <c r="R101" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="T101" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="U101" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V101" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W101" t="n">
         <v>35</v>
       </c>
       <c r="X101" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y101" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Z101" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AA101" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC101" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD101" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE101" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG101" t="n">
         <v>29</v>
       </c>
       <c r="AH101" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI101" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AJ101" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102">
@@ -12348,10 +12348,10 @@
         <v>13</v>
       </c>
       <c r="L104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M104" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N104" t="n">
         <v>1.8</v>
@@ -12461,13 +12461,13 @@
         <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -12476,16 +12476,16 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P105" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R105" t="n">
         <v>1.7</v>
@@ -12515,7 +12515,7 @@
         <v>12</v>
       </c>
       <c r="AA105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB105" t="n">
         <v>13</v>
@@ -12530,10 +12530,10 @@
         <v>10</v>
       </c>
       <c r="AF105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH105" t="n">
         <v>15</v>
@@ -12542,7 +12542,7 @@
         <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
@@ -12958,10 +12958,10 @@
         <v>23</v>
       </c>
       <c r="L109" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N109" t="n">
         <v>1.36</v>
@@ -13080,16 +13080,16 @@
         <v>26</v>
       </c>
       <c r="L110" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M110" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N110" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O110" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P110" t="n">
         <v>1.17</v>
@@ -13675,13 +13675,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>3.2</v>
       </c>
       <c r="I115" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
         <v>1.11</v>
@@ -13720,16 +13720,16 @@
         <v>17</v>
       </c>
       <c r="V115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W115" t="n">
         <v>41</v>
       </c>
       <c r="X115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y115" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z115" t="n">
         <v>6.5</v>
@@ -13750,10 +13750,10 @@
         <v>8.5</v>
       </c>
       <c r="AF115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH115" t="n">
         <v>21</v>
@@ -14519,7 +14519,7 @@
         <v>1.04</v>
       </c>
       <c r="K122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L122" t="n">
         <v>1.25</v>
@@ -14820,7 +14820,7 @@
         <v>29</v>
       </c>
       <c r="AD124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE124" t="n">
         <v>19</v>
@@ -15638,10 +15638,10 @@
         <v>3.4</v>
       </c>
       <c r="R131" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S131" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T131" t="n">
         <v>8</v>
@@ -15686,7 +15686,7 @@
         <v>51</v>
       </c>
       <c r="AH131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI131" t="n">
         <v>41</v>
@@ -15845,13 +15845,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H133" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I133" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -15877,22 +15877,22 @@
         <v>1.8</v>
       </c>
       <c r="S133" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U133" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V133" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W133" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X133" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y133" t="n">
         <v>37</v>
@@ -15904,7 +15904,7 @@
         <v>5.7</v>
       </c>
       <c r="AB133" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC133" t="n">
         <v>75</v>
@@ -15913,16 +15913,16 @@
         <v>7</v>
       </c>
       <c r="AE133" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF133" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH133" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI133" t="n">
         <v>35</v>
@@ -15963,48 +15963,48 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H134" t="n">
         <v>3</v>
       </c>
       <c r="I134" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M134" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="N134" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O134" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P134" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R134" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S134" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T134" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U134" t="n">
         <v>12.5</v>
       </c>
       <c r="V134" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W134" t="n">
         <v>27</v>
@@ -16013,25 +16013,25 @@
         <v>20</v>
       </c>
       <c r="Y134" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA134" t="n">
         <v>5.8</v>
       </c>
       <c r="AB134" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE134" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF134" t="n">
         <v>10.5</v>
@@ -16040,13 +16040,13 @@
         <v>37</v>
       </c>
       <c r="AH134" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI134" t="n">
         <v>35</v>
       </c>
       <c r="AJ134" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
